--- a/results/linear/AuditResults.xlsx
+++ b/results/linear/AuditResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\research\results\linear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10950B09-756F-481C-9299-819052F417EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9871E0CF-F69A-4107-9C79-5A957C889120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Run ID</t>
   </si>
@@ -40,19 +40,27 @@
   </si>
   <si>
     <t>Attack AUC</t>
+  </si>
+  <si>
+    <t>End Mag First Layer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -75,8 +83,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,22 +368,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,9 +398,44 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>0.7</v>
+      </c>
+      <c r="D2">
+        <v>51.360000610351499</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>0.95</v>
+      </c>
+      <c r="D3" s="1">
+        <v>46.400001525878899</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/linear/AuditResults.xlsx
+++ b/results/linear/AuditResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\research\results\linear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9871E0CF-F69A-4107-9C79-5A957C889120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA46928-C88D-46B7-9B8E-ECE294470238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Run ID</t>
   </si>
@@ -42,25 +42,29 @@
     <t>Attack AUC</t>
   </si>
   <si>
-    <t>End Mag First Layer</t>
+    <t>End Mag fc1</t>
+  </si>
+  <si>
+    <t>End Mag fc2</t>
+  </si>
+  <si>
+    <t>End Mag fc1 + fc2</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Var(--jp-code-font-family)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,9 +89,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,13 +370,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
@@ -383,7 +385,7 @@
     <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,7 +402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -410,14 +412,14 @@
       <c r="C2">
         <v>0.7</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>51.360000610351499</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -428,10 +430,146 @@
         <v>0.95</v>
       </c>
       <c r="D3" s="1">
-        <v>46.400001525878899</v>
-      </c>
-      <c r="E3" s="1">
+        <v>46.4</v>
+      </c>
+      <c r="E3">
         <v>0.53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0.99</v>
+      </c>
+      <c r="D4" s="1">
+        <v>32.759998321533203</v>
+      </c>
+      <c r="E4">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0.7</v>
+      </c>
+      <c r="D5">
+        <v>45.169998168945298</v>
+      </c>
+      <c r="E5">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>0.95</v>
+      </c>
+      <c r="D6">
+        <v>21.2600002288818</v>
+      </c>
+      <c r="E6">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>0.99</v>
+      </c>
+      <c r="D7">
+        <v>13.4799995422363</v>
+      </c>
+      <c r="E7">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0.99</v>
+      </c>
+      <c r="D8">
+        <v>28.409999847412099</v>
+      </c>
+      <c r="E8">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0.95</v>
+      </c>
+      <c r="D9">
+        <v>45.959999084472599</v>
+      </c>
+      <c r="E9">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>0.7</v>
+      </c>
+      <c r="D10">
+        <v>51.4799995422363</v>
+      </c>
+      <c r="E10">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>52.330001831054602</v>
+      </c>
+      <c r="E11">
+        <v>0.56000000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/results/linear/AuditResults.xlsx
+++ b/results/linear/AuditResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\research\results\linear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA46928-C88D-46B7-9B8E-ECE294470238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF234F77-63FB-4B11-AFCB-F5F6012F223E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
   <si>
     <t>Run ID</t>
   </si>
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,6 +572,125 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>0.8</v>
+      </c>
+      <c r="D12" s="1">
+        <v>50.860000610351499</v>
+      </c>
+      <c r="E12">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>0.9</v>
+      </c>
+      <c r="D13">
+        <v>49.779998779296797</v>
+      </c>
+      <c r="E13">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>0.9</v>
+      </c>
+      <c r="D14">
+        <v>26.139999389648398</v>
+      </c>
+      <c r="E14">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>0.8</v>
+      </c>
+      <c r="D15">
+        <v>36.529998779296797</v>
+      </c>
+      <c r="E15">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>0.6</v>
+      </c>
+      <c r="D16">
+        <v>48.630001068115199</v>
+      </c>
+      <c r="E16">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>0.8</v>
+      </c>
+      <c r="D17">
+        <v>50.939998626708899</v>
+      </c>
+      <c r="E17">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>0.9</v>
+      </c>
+      <c r="D18">
+        <v>49.450000762939403</v>
+      </c>
+      <c r="E18">
+        <v>0.54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/results/linear/AuditResults.xlsx
+++ b/results/linear/AuditResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\research\results\linear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF234F77-63FB-4B11-AFCB-F5F6012F223E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D14ACE-0F13-40BC-B721-5D01A35C2DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
   <si>
     <t>Run ID</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>default</t>
+  </si>
+  <si>
+    <t>Partial Noise</t>
   </si>
 </sst>
 </file>
@@ -370,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,6 +694,176 @@
         <v>0.54</v>
       </c>
     </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>0.9</v>
+      </c>
+      <c r="D19">
+        <v>34.810001373291001</v>
+      </c>
+      <c r="E19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>0.8</v>
+      </c>
+      <c r="D20">
+        <v>37.330001831054602</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>0.7</v>
+      </c>
+      <c r="D21">
+        <v>38.220001220703097</v>
+      </c>
+      <c r="E21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>0.6</v>
+      </c>
+      <c r="D22">
+        <v>38.790000915527301</v>
+      </c>
+      <c r="E22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>0.5</v>
+      </c>
+      <c r="D23">
+        <v>39.159999847412102</v>
+      </c>
+      <c r="E23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>0.4</v>
+      </c>
+      <c r="D24">
+        <v>39.319999694824197</v>
+      </c>
+      <c r="E24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>0.3</v>
+      </c>
+      <c r="D25">
+        <v>39.430000305175703</v>
+      </c>
+      <c r="E25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>0.2</v>
+      </c>
+      <c r="D26">
+        <v>39.490001678466797</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>0.1</v>
+      </c>
+      <c r="D27">
+        <v>39.610000610351499</v>
+      </c>
+      <c r="E27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>38.709999084472599</v>
+      </c>
+      <c r="E28">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/results/linear/AuditResults.xlsx
+++ b/results/linear/AuditResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\research\results\linear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D14ACE-0F13-40BC-B721-5D01A35C2DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55861D0E-D6AF-4F1B-8CE8-72C2425E0BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>Run ID</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Partial Noise</t>
+  </si>
+  <si>
+    <t>Partial DPSGD fc1</t>
+  </si>
+  <si>
+    <t>Partial DPSGD fc2</t>
   </si>
 </sst>
 </file>
@@ -373,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -864,6 +870,74 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>0.9</v>
+      </c>
+      <c r="D29">
+        <v>43.049999237060497</v>
+      </c>
+      <c r="E29">
+        <v>0.50187091299999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>0.9</v>
+      </c>
+      <c r="D30">
+        <v>42.709999084472599</v>
+      </c>
+      <c r="E30">
+        <v>0.502477654</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>0.7</v>
+      </c>
+      <c r="D31">
+        <v>44.4799995422363</v>
+      </c>
+      <c r="E31">
+        <v>0.50377172400000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>0.5</v>
+      </c>
+      <c r="D32">
+        <v>45.360000610351499</v>
+      </c>
+      <c r="E32">
+        <v>0.50498237899999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/results/linear/AuditResults.xlsx
+++ b/results/linear/AuditResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\research\results\linear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55861D0E-D6AF-4F1B-8CE8-72C2425E0BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D024BF2-5F75-4BC6-8302-C046CF30A9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="14">
   <si>
     <t>Run ID</t>
   </si>
@@ -57,10 +57,16 @@
     <t>Partial Noise</t>
   </si>
   <si>
+    <t>Partial DPSGD</t>
+  </si>
+  <si>
     <t>Partial DPSGD fc1</t>
   </si>
   <si>
     <t>Partial DPSGD fc2</t>
+  </si>
+  <si>
+    <t>Partial DPSGD fc1 + fc2</t>
   </si>
 </sst>
 </file>
@@ -379,16 +385,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
@@ -875,7 +881,7 @@
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29">
         <v>0.9</v>
@@ -892,7 +898,7 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C30">
         <v>0.9</v>
@@ -909,7 +915,7 @@
         <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C31">
         <v>0.7</v>
@@ -926,7 +932,7 @@
         <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32">
         <v>0.5</v>
@@ -936,6 +942,210 @@
       </c>
       <c r="E32">
         <v>0.50498237899999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <v>0.5</v>
+      </c>
+      <c r="D33">
+        <v>42</v>
+      </c>
+      <c r="E33">
+        <v>0.50246845399999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>0.7</v>
+      </c>
+      <c r="D34">
+        <v>42.700000762939403</v>
+      </c>
+      <c r="E34">
+        <v>0.50167523000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35">
+        <v>0.9</v>
+      </c>
+      <c r="D35">
+        <v>42.340000152587798</v>
+      </c>
+      <c r="E35">
+        <v>0.50114601299999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>0.7</v>
+      </c>
+      <c r="D36">
+        <v>43.849998474121001</v>
+      </c>
+      <c r="E36">
+        <v>0.502056261</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>0.5</v>
+      </c>
+      <c r="D37">
+        <v>43.770000457763601</v>
+      </c>
+      <c r="E37">
+        <v>0.50255375499999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>43.540000915527301</v>
+      </c>
+      <c r="E38">
+        <v>0.50249773799999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>0.1</v>
+      </c>
+      <c r="D39">
+        <v>44.610000610351499</v>
+      </c>
+      <c r="E39">
+        <v>0.50387727500000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>0.1</v>
+      </c>
+      <c r="D40">
+        <v>43.5</v>
+      </c>
+      <c r="E40">
+        <v>0.50212175999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>0.1</v>
+      </c>
+      <c r="D41">
+        <v>45.75</v>
+      </c>
+      <c r="E41">
+        <v>0.50602974199999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>51</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42">
+        <v>0.2</v>
+      </c>
+      <c r="D42">
+        <v>45.639999389648402</v>
+      </c>
+      <c r="E42">
+        <v>0.50593523699999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43">
+        <v>0.2</v>
+      </c>
+      <c r="D43">
+        <v>42.900001525878899</v>
+      </c>
+      <c r="E43">
+        <v>0.50086967400000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>0.2</v>
+      </c>
+      <c r="D44">
+        <v>44.049999237060497</v>
+      </c>
+      <c r="E44">
+        <v>0.50290984599999999</v>
       </c>
     </row>
   </sheetData>

--- a/results/linear/AuditResults.xlsx
+++ b/results/linear/AuditResults.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\research\results\linear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D024BF2-5F75-4BC6-8302-C046CF30A9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FB363D-8F1D-47BE-92DF-CDF568B8DE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="18">
   <si>
     <t>Run ID</t>
   </si>
@@ -67,19 +68,37 @@
   </si>
   <si>
     <t>Partial DPSGD fc1 + fc2</t>
+  </si>
+  <si>
+    <t>Magnitude Weights Rev</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>Magnitude Weights</t>
+  </si>
+  <si>
+    <t>DPSGD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF3C4043"/>
+      <name val="Roboto Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,9 +121,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:E45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1152,4 +1174,211 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97681D0C-74BE-4316-A826-900781B712F4}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>0.9</v>
+      </c>
+      <c r="D2">
+        <v>38.610000610351499</v>
+      </c>
+      <c r="E2">
+        <v>0.50295479200000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>0.7</v>
+      </c>
+      <c r="D3">
+        <v>38.259998321533203</v>
+      </c>
+      <c r="E3">
+        <v>0.50274779599999997</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>37.650001525878899</v>
+      </c>
+      <c r="E4">
+        <v>0.50342868399999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>37.900001525878899</v>
+      </c>
+      <c r="E5">
+        <v>0.50300287300000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>0.7</v>
+      </c>
+      <c r="D6">
+        <v>38.189998626708899</v>
+      </c>
+      <c r="E6">
+        <v>0.50301947899999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>0.9</v>
+      </c>
+      <c r="D7">
+        <v>38.529998779296797</v>
+      </c>
+      <c r="E7">
+        <v>0.50303648099999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>0.9</v>
+      </c>
+      <c r="D8">
+        <v>38.669998168945298</v>
+      </c>
+      <c r="E8">
+        <v>0.50240677300000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>0.7</v>
+      </c>
+      <c r="D9">
+        <v>38.4799995422363</v>
+      </c>
+      <c r="E9">
+        <v>0.50253399600000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="D10">
+        <v>38.240001678466797</v>
+      </c>
+      <c r="E10">
+        <v>0.50212737399999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>37.540000915527301</v>
+      </c>
+      <c r="E11">
+        <v>0.50214946599999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/results/linear/AuditResults.xlsx
+++ b/results/linear/AuditResults.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\research\results\linear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FB363D-8F1D-47BE-92DF-CDF568B8DE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC5FC28-DC38-411A-97E3-B5B41D6EFA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="18">
   <si>
     <t>Run ID</t>
   </si>
@@ -1178,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97681D0C-74BE-4316-A826-900781B712F4}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1377,6 +1377,363 @@
         <v>0.50214946599999999</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>0.1</v>
+      </c>
+      <c r="D12">
+        <v>37.720001220703097</v>
+      </c>
+      <c r="E12">
+        <v>0.50234020800000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>0.2</v>
+      </c>
+      <c r="D13">
+        <v>38.009998321533203</v>
+      </c>
+      <c r="E13">
+        <v>0.50238011400000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>0.3</v>
+      </c>
+      <c r="D14">
+        <v>38.490001678466797</v>
+      </c>
+      <c r="E14">
+        <v>0.50032243200000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>0.4</v>
+      </c>
+      <c r="D15">
+        <v>38.240001678466797</v>
+      </c>
+      <c r="E15">
+        <v>0.50198334300000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.6</v>
+      </c>
+      <c r="D16">
+        <v>38.180000305175703</v>
+      </c>
+      <c r="E16">
+        <v>0.50128781700000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>0.8</v>
+      </c>
+      <c r="D17">
+        <v>38.299999237060497</v>
+      </c>
+      <c r="E17">
+        <v>0.50312383999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.95</v>
+      </c>
+      <c r="D18">
+        <v>38.869998931884702</v>
+      </c>
+      <c r="E18">
+        <v>0.50207333600000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>0.1</v>
+      </c>
+      <c r="D19">
+        <v>37.790000915527301</v>
+      </c>
+      <c r="E19">
+        <v>0.50160093699999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>0.2</v>
+      </c>
+      <c r="D20">
+        <v>38.419998168945298</v>
+      </c>
+      <c r="E20">
+        <v>0.50208771499999905</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>78</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>0.3</v>
+      </c>
+      <c r="D21">
+        <v>37.490001678466797</v>
+      </c>
+      <c r="E21">
+        <v>0.502687357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>0.4</v>
+      </c>
+      <c r="D22">
+        <v>38.400001525878899</v>
+      </c>
+      <c r="E22">
+        <v>0.50079729399999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>78</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>0.6</v>
+      </c>
+      <c r="D23">
+        <v>38.5</v>
+      </c>
+      <c r="E23">
+        <v>0.50288180199999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>0.8</v>
+      </c>
+      <c r="D24">
+        <v>38.770000457763601</v>
+      </c>
+      <c r="E24">
+        <v>0.50233140899999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>78</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>0.95</v>
+      </c>
+      <c r="D25">
+        <v>38.860000610351499</v>
+      </c>
+      <c r="E25">
+        <v>0.50196565599999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>0.1</v>
+      </c>
+      <c r="D26">
+        <v>37.810001373291001</v>
+      </c>
+      <c r="E26">
+        <v>0.50297616599999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27">
+        <v>0.2</v>
+      </c>
+      <c r="D27">
+        <v>37.680000305175703</v>
+      </c>
+      <c r="E27">
+        <v>0.50180570999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>0.3</v>
+      </c>
+      <c r="D28">
+        <v>38.189998626708899</v>
+      </c>
+      <c r="E28">
+        <v>0.50115824399999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29">
+        <v>0.4</v>
+      </c>
+      <c r="D29">
+        <v>38.240001678466797</v>
+      </c>
+      <c r="E29">
+        <v>0.502265132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30">
+        <v>0.6</v>
+      </c>
+      <c r="D30">
+        <v>38.389999389648402</v>
+      </c>
+      <c r="E30">
+        <v>0.50156709700000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>78</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31">
+        <v>0.8</v>
+      </c>
+      <c r="D31">
+        <v>38.770000457763601</v>
+      </c>
+      <c r="E31">
+        <v>0.50107107799999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>78</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>0.95</v>
+      </c>
+      <c r="D32">
+        <v>38.959999084472599</v>
+      </c>
+      <c r="E32">
+        <v>0.50166041100000003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/results/linear/AuditResults.xlsx
+++ b/results/linear/AuditResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\research\results\linear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC5FC28-DC38-411A-97E3-B5B41D6EFA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEBB8C7-9C57-42D8-992B-45231C063ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="17">
   <si>
     <t>Run ID</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>Magnitude Weights</t>
-  </si>
-  <si>
-    <t>DPSGD</t>
   </si>
 </sst>
 </file>
@@ -1178,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97681D0C-74BE-4316-A826-900781B712F4}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="B231" sqref="B231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1362,19 +1359,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D11">
-        <v>37.540000915527301</v>
+        <v>37.720001220703097</v>
       </c>
       <c r="E11">
-        <v>0.50214946599999999</v>
+        <v>0.50234020800000001</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1385,13 +1382,13 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D12">
-        <v>37.720001220703097</v>
+        <v>38.009998321533203</v>
       </c>
       <c r="E12">
-        <v>0.50234020800000001</v>
+        <v>0.50238011400000004</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1402,13 +1399,13 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D13">
-        <v>38.009998321533203</v>
+        <v>38.490001678466797</v>
       </c>
       <c r="E13">
-        <v>0.50238011400000004</v>
+        <v>0.50032243200000004</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1419,13 +1416,13 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D14">
-        <v>38.490001678466797</v>
+        <v>38.240001678466797</v>
       </c>
       <c r="E14">
-        <v>0.50032243200000004</v>
+        <v>0.50198334300000003</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1436,13 +1433,13 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D15">
-        <v>38.240001678466797</v>
+        <v>38.180000305175703</v>
       </c>
       <c r="E15">
-        <v>0.50198334300000003</v>
+        <v>0.50128781700000002</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1453,13 +1450,13 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D16">
-        <v>38.180000305175703</v>
+        <v>38.299999237060497</v>
       </c>
       <c r="E16">
-        <v>0.50128781700000002</v>
+        <v>0.50312383999999999</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1470,13 +1467,13 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="D17">
-        <v>38.299999237060497</v>
+        <v>38.869998931884702</v>
       </c>
       <c r="E17">
-        <v>0.50312383999999999</v>
+        <v>0.50207333600000004</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1484,16 +1481,16 @@
         <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="D18">
-        <v>38.869998931884702</v>
+        <v>37.790000915527301</v>
       </c>
       <c r="E18">
-        <v>0.50207333600000004</v>
+        <v>0.50160093699999997</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1504,13 +1501,13 @@
         <v>15</v>
       </c>
       <c r="C19">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D19">
-        <v>37.790000915527301</v>
+        <v>38.419998168945298</v>
       </c>
       <c r="E19">
-        <v>0.50160093699999997</v>
+        <v>0.50208771499999905</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1521,13 +1518,13 @@
         <v>15</v>
       </c>
       <c r="C20">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D20">
-        <v>38.419998168945298</v>
+        <v>37.490001678466797</v>
       </c>
       <c r="E20">
-        <v>0.50208771499999905</v>
+        <v>0.502687357</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1538,13 +1535,13 @@
         <v>15</v>
       </c>
       <c r="C21">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D21">
-        <v>37.490001678466797</v>
+        <v>38.400001525878899</v>
       </c>
       <c r="E21">
-        <v>0.502687357</v>
+        <v>0.50079729399999995</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1555,13 +1552,13 @@
         <v>15</v>
       </c>
       <c r="C22">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D22">
-        <v>38.400001525878899</v>
+        <v>38.5</v>
       </c>
       <c r="E22">
-        <v>0.50079729399999995</v>
+        <v>0.50288180199999999</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1572,13 +1569,13 @@
         <v>15</v>
       </c>
       <c r="C23">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D23">
-        <v>38.5</v>
+        <v>38.770000457763601</v>
       </c>
       <c r="E23">
-        <v>0.50288180199999999</v>
+        <v>0.50233140899999995</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1589,13 +1586,13 @@
         <v>15</v>
       </c>
       <c r="C24">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="D24">
-        <v>38.770000457763601</v>
+        <v>38.860000610351499</v>
       </c>
       <c r="E24">
-        <v>0.50233140899999995</v>
+        <v>0.50196565599999998</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1603,16 +1600,16 @@
         <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="D25">
-        <v>38.860000610351499</v>
+        <v>37.810001373291001</v>
       </c>
       <c r="E25">
-        <v>0.50196565599999998</v>
+        <v>0.50297616599999995</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1623,13 +1620,13 @@
         <v>14</v>
       </c>
       <c r="C26">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D26">
-        <v>37.810001373291001</v>
+        <v>37.680000305175703</v>
       </c>
       <c r="E26">
-        <v>0.50297616599999995</v>
+        <v>0.50180570999999996</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1640,13 +1637,13 @@
         <v>14</v>
       </c>
       <c r="C27">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D27">
-        <v>37.680000305175703</v>
+        <v>38.189998626708899</v>
       </c>
       <c r="E27">
-        <v>0.50180570999999996</v>
+        <v>0.50115824399999997</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1657,13 +1654,13 @@
         <v>14</v>
       </c>
       <c r="C28">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D28">
-        <v>38.189998626708899</v>
+        <v>38.240001678466797</v>
       </c>
       <c r="E28">
-        <v>0.50115824399999997</v>
+        <v>0.502265132</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1674,13 +1671,13 @@
         <v>14</v>
       </c>
       <c r="C29">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D29">
-        <v>38.240001678466797</v>
+        <v>38.389999389648402</v>
       </c>
       <c r="E29">
-        <v>0.502265132</v>
+        <v>0.50156709700000002</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1691,13 +1688,13 @@
         <v>14</v>
       </c>
       <c r="C30">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D30">
-        <v>38.389999389648402</v>
+        <v>38.770000457763601</v>
       </c>
       <c r="E30">
-        <v>0.50156709700000002</v>
+        <v>0.50107107799999995</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1708,30 +1705,5113 @@
         <v>14</v>
       </c>
       <c r="C31">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="D31">
-        <v>38.770000457763601</v>
+        <v>38.959999084472599</v>
       </c>
       <c r="E31">
-        <v>0.50107107799999995</v>
+        <v>0.50166041100000003</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
       </c>
       <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>37.540000915527301</v>
+      </c>
+      <c r="E32">
+        <v>0.50214946599999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>82</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>0.01</v>
+      </c>
+      <c r="D33">
+        <v>37.9799995422363</v>
+      </c>
+      <c r="E33">
+        <v>0.50170158600000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34">
+        <v>0.02</v>
+      </c>
+      <c r="D34">
+        <v>37.659999847412102</v>
+      </c>
+      <c r="E34">
+        <v>0.50083603200000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>82</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <v>0.03</v>
+      </c>
+      <c r="D35">
+        <v>37.569999694824197</v>
+      </c>
+      <c r="E35">
+        <v>0.50218462200000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>82</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36">
+        <v>0.04</v>
+      </c>
+      <c r="D36">
+        <v>37.810001373291001</v>
+      </c>
+      <c r="E36">
+        <v>0.50094820799999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>82</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37">
+        <v>0.05</v>
+      </c>
+      <c r="D37">
+        <v>37.459999084472599</v>
+      </c>
+      <c r="E37">
+        <v>0.50217756800000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38">
+        <v>0.06</v>
+      </c>
+      <c r="D38">
+        <v>37.840000152587798</v>
+      </c>
+      <c r="E38">
+        <v>0.50221649999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>82</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D39">
+        <v>37.540000915527301</v>
+      </c>
+      <c r="E39">
+        <v>0.50222907900000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40">
+        <v>0.08</v>
+      </c>
+      <c r="D40">
+        <v>37.669998168945298</v>
+      </c>
+      <c r="E40">
+        <v>0.50241703399999904</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41">
+        <v>0.09</v>
+      </c>
+      <c r="D41">
+        <v>37.930000305175703</v>
+      </c>
+      <c r="E41">
+        <v>0.50130971999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42">
+        <v>0.1</v>
+      </c>
+      <c r="D42">
+        <v>37.520000457763601</v>
+      </c>
+      <c r="E42">
+        <v>0.50147700699999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43">
+        <v>0.11</v>
+      </c>
+      <c r="D43">
+        <v>38</v>
+      </c>
+      <c r="E43">
+        <v>0.50165174699999904</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>82</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44">
+        <v>0.12</v>
+      </c>
+      <c r="D44">
+        <v>37.790000915527301</v>
+      </c>
+      <c r="E44">
+        <v>0.50124101700000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>82</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45">
+        <v>0.13</v>
+      </c>
+      <c r="D45">
+        <v>37.529998779296797</v>
+      </c>
+      <c r="E45">
+        <v>0.50371007199999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>82</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D46">
+        <v>37.759998321533203</v>
+      </c>
+      <c r="E46">
+        <v>0.50212420000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>82</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47">
+        <v>0.15</v>
+      </c>
+      <c r="D47">
+        <v>37.639999389648402</v>
+      </c>
+      <c r="E47">
+        <v>0.50289790300000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>82</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48">
+        <v>0.16</v>
+      </c>
+      <c r="D48">
+        <v>37.75</v>
+      </c>
+      <c r="E48">
+        <v>0.50264598399999905</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>82</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49">
+        <v>0.17</v>
+      </c>
+      <c r="D49">
+        <v>37.669998168945298</v>
+      </c>
+      <c r="E49">
+        <v>0.50125546700000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>82</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50">
+        <v>0.18</v>
+      </c>
+      <c r="D50">
+        <v>37.950000762939403</v>
+      </c>
+      <c r="E50">
+        <v>0.50216954899999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>82</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51">
+        <v>0.19</v>
+      </c>
+      <c r="D51">
+        <v>37.819999694824197</v>
+      </c>
+      <c r="E51">
+        <v>0.50126380699999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>82</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52">
+        <v>0.2</v>
+      </c>
+      <c r="D52">
+        <v>37.9799995422363</v>
+      </c>
+      <c r="E52">
+        <v>0.502349241</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>82</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53">
+        <v>0.21</v>
+      </c>
+      <c r="D53">
+        <v>37.549999237060497</v>
+      </c>
+      <c r="E53">
+        <v>0.503504379</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>82</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54">
+        <v>0.22</v>
+      </c>
+      <c r="D54">
+        <v>37.290000915527301</v>
+      </c>
+      <c r="E54">
+        <v>0.50382303500000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>82</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55">
+        <v>0.23</v>
+      </c>
+      <c r="D55">
+        <v>37.950000762939403</v>
+      </c>
+      <c r="E55">
+        <v>0.50186366599999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>82</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56">
+        <v>0.24</v>
+      </c>
+      <c r="D56">
+        <v>37.840000152587798</v>
+      </c>
+      <c r="E56">
+        <v>0.50132616399999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>82</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57">
+        <v>0.25</v>
+      </c>
+      <c r="D57">
+        <v>38.25</v>
+      </c>
+      <c r="E57">
+        <v>0.50123487499999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>82</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58">
+        <v>0.26</v>
+      </c>
+      <c r="D58">
+        <v>37.639999389648402</v>
+      </c>
+      <c r="E58">
+        <v>0.50038640400000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>82</v>
+      </c>
+      <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59">
+        <v>0.27</v>
+      </c>
+      <c r="D59">
+        <v>37.790000915527301</v>
+      </c>
+      <c r="E59">
+        <v>0.50301713299999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>82</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D60">
+        <v>37.770000457763601</v>
+      </c>
+      <c r="E60">
+        <v>0.50058757199999904</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>82</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D61">
+        <v>38.220001220703097</v>
+      </c>
+      <c r="E61">
+        <v>0.50145220400000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>82</v>
+      </c>
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62">
+        <v>0.3</v>
+      </c>
+      <c r="D62">
+        <v>37.369998931884702</v>
+      </c>
+      <c r="E62">
+        <v>0.50301954500000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>82</v>
+      </c>
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63">
+        <v>0.31</v>
+      </c>
+      <c r="D63">
+        <v>37.590000152587798</v>
+      </c>
+      <c r="E63">
+        <v>0.50336995100000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>82</v>
+      </c>
+      <c r="B64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64">
+        <v>0.32</v>
+      </c>
+      <c r="D64">
+        <v>38.590000152587798</v>
+      </c>
+      <c r="E64">
+        <v>0.50105670199999996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>82</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65">
+        <v>0.33</v>
+      </c>
+      <c r="D65">
+        <v>38.259998321533203</v>
+      </c>
+      <c r="E65">
+        <v>0.50270753499999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>82</v>
+      </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66">
+        <v>0.34</v>
+      </c>
+      <c r="D66">
+        <v>38.240001678466797</v>
+      </c>
+      <c r="E66">
+        <v>0.50160875699999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>82</v>
+      </c>
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67">
+        <v>0.35</v>
+      </c>
+      <c r="D67">
+        <v>38.020000457763601</v>
+      </c>
+      <c r="E67">
+        <v>0.50178770500000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>82</v>
+      </c>
+      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68">
+        <v>0.36</v>
+      </c>
+      <c r="D68">
+        <v>38.520000457763601</v>
+      </c>
+      <c r="E68">
+        <v>0.50019841799999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>82</v>
+      </c>
+      <c r="B69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69">
+        <v>0.37</v>
+      </c>
+      <c r="D69">
+        <v>37.770000457763601</v>
+      </c>
+      <c r="E69">
+        <v>0.50213080499999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>82</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70">
+        <v>0.38</v>
+      </c>
+      <c r="D70">
+        <v>37.630001068115199</v>
+      </c>
+      <c r="E70">
+        <v>0.50271780099999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>82</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71">
+        <v>0.39</v>
+      </c>
+      <c r="D71">
+        <v>37.450000762939403</v>
+      </c>
+      <c r="E71">
+        <v>0.50240120799999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>82</v>
+      </c>
+      <c r="B72" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72">
+        <v>0.4</v>
+      </c>
+      <c r="D72">
+        <v>38.409999847412102</v>
+      </c>
+      <c r="E72">
+        <v>0.50240946399999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>82</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73">
+        <v>0.41</v>
+      </c>
+      <c r="D73">
+        <v>38.369998931884702</v>
+      </c>
+      <c r="E73">
+        <v>0.50226468300000005</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>82</v>
+      </c>
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74">
+        <v>0.42</v>
+      </c>
+      <c r="D74">
+        <v>38.4799995422363</v>
+      </c>
+      <c r="E74">
+        <v>0.50224360699999904</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>82</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75">
+        <v>0.43</v>
+      </c>
+      <c r="D75">
+        <v>38.119998931884702</v>
+      </c>
+      <c r="E75">
+        <v>0.50161489399999903</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>82</v>
+      </c>
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76">
+        <v>0.44</v>
+      </c>
+      <c r="D76">
+        <v>38.180000305175703</v>
+      </c>
+      <c r="E76">
+        <v>0.50234758899999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>82</v>
+      </c>
+      <c r="B77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77">
+        <v>0.45</v>
+      </c>
+      <c r="D77">
+        <v>38.080001831054602</v>
+      </c>
+      <c r="E77">
+        <v>0.50261658300000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>82</v>
+      </c>
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78">
+        <v>0.46</v>
+      </c>
+      <c r="D78">
+        <v>38.340000152587798</v>
+      </c>
+      <c r="E78">
+        <v>0.50357501900000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79">
+        <v>0.47</v>
+      </c>
+      <c r="D79">
+        <v>38.169998168945298</v>
+      </c>
+      <c r="E79">
+        <v>0.50222681499999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80">
+        <v>0.48</v>
+      </c>
+      <c r="D80">
+        <v>38.900001525878899</v>
+      </c>
+      <c r="E80">
+        <v>0.50146822099999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>82</v>
+      </c>
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81">
+        <v>0.49</v>
+      </c>
+      <c r="D81">
+        <v>38.209999084472599</v>
+      </c>
+      <c r="E81">
+        <v>0.50273979700000004</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82">
+        <v>0.5</v>
+      </c>
+      <c r="D82">
+        <v>38.369998931884702</v>
+      </c>
+      <c r="E82">
+        <v>0.50214898900000005</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83">
+        <v>0.51</v>
+      </c>
+      <c r="D83">
+        <v>38.619998931884702</v>
+      </c>
+      <c r="E83">
+        <v>0.50182552999999996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84">
+        <v>0.52</v>
+      </c>
+      <c r="D84">
+        <v>38.240001678466797</v>
+      </c>
+      <c r="E84">
+        <v>0.50091390899999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>82</v>
+      </c>
+      <c r="B85" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85">
+        <v>0.53</v>
+      </c>
+      <c r="D85">
+        <v>38.810001373291001</v>
+      </c>
+      <c r="E85">
+        <v>0.50156725899999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>82</v>
+      </c>
+      <c r="B86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86">
+        <v>0.54</v>
+      </c>
+      <c r="D86">
+        <v>38.319999694824197</v>
+      </c>
+      <c r="E86">
+        <v>0.50278774900000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>82</v>
+      </c>
+      <c r="B87" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D87">
+        <v>37.970001220703097</v>
+      </c>
+      <c r="E87">
+        <v>0.50349484299999903</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>82</v>
+      </c>
+      <c r="B88" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D88">
+        <v>38.459999084472599</v>
+      </c>
+      <c r="E88">
+        <v>0.50069832800000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>82</v>
+      </c>
+      <c r="B89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D89">
+        <v>38.209999084472599</v>
+      </c>
+      <c r="E89">
+        <v>0.50335872699999995</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>82</v>
+      </c>
+      <c r="B90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D90">
+        <v>37.909999847412102</v>
+      </c>
+      <c r="E90">
+        <v>0.50233496099999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>82</v>
+      </c>
+      <c r="B91" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91">
+        <v>0.59</v>
+      </c>
+      <c r="D91">
+        <v>38.450000762939403</v>
+      </c>
+      <c r="E91">
+        <v>0.50176145999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>82</v>
+      </c>
+      <c r="B92" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92">
+        <v>0.6</v>
+      </c>
+      <c r="D92">
+        <v>38.4799995422363</v>
+      </c>
+      <c r="E92">
+        <v>0.50155147</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>82</v>
+      </c>
+      <c r="B93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93">
+        <v>0.61</v>
+      </c>
+      <c r="D93">
+        <v>38.419998168945298</v>
+      </c>
+      <c r="E93">
+        <v>0.500504481</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>82</v>
+      </c>
+      <c r="B94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94">
+        <v>0.62</v>
+      </c>
+      <c r="D94">
+        <v>38.279998779296797</v>
+      </c>
+      <c r="E94">
+        <v>0.50158986400000005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>82</v>
+      </c>
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95">
+        <v>0.63</v>
+      </c>
+      <c r="D95">
+        <v>38.409999847412102</v>
+      </c>
+      <c r="E95">
+        <v>0.50165535099999903</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>82</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96">
+        <v>0.64</v>
+      </c>
+      <c r="D96">
+        <v>38.810001373291001</v>
+      </c>
+      <c r="E96">
+        <v>0.501177019</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>82</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97">
+        <v>0.65</v>
+      </c>
+      <c r="D97">
+        <v>38.180000305175703</v>
+      </c>
+      <c r="E97">
+        <v>0.50261755799999996</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>82</v>
+      </c>
+      <c r="B98" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98">
+        <v>0.66</v>
+      </c>
+      <c r="D98">
+        <v>38.509998321533203</v>
+      </c>
+      <c r="E98">
+        <v>0.501936041</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>82</v>
+      </c>
+      <c r="B99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99">
+        <v>0.67</v>
+      </c>
+      <c r="D99">
+        <v>38.009998321533203</v>
+      </c>
+      <c r="E99">
+        <v>0.50256490699999901</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>82</v>
+      </c>
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100">
+        <v>0.68</v>
+      </c>
+      <c r="D100">
+        <v>38.659999847412102</v>
+      </c>
+      <c r="E100">
+        <v>0.50245371400000005</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>82</v>
+      </c>
+      <c r="B101" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101">
+        <v>0.69</v>
+      </c>
+      <c r="D101">
+        <v>38.669998168945298</v>
+      </c>
+      <c r="E101">
+        <v>0.50332457499999905</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>82</v>
+      </c>
+      <c r="B102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102">
+        <v>0.7</v>
+      </c>
+      <c r="D102">
+        <v>38.439998626708899</v>
+      </c>
+      <c r="E102">
+        <v>0.50253240399999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>82</v>
+      </c>
+      <c r="B103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103">
+        <v>0.71</v>
+      </c>
+      <c r="D103">
+        <v>38.349998474121001</v>
+      </c>
+      <c r="E103">
+        <v>0.50294147899999997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>82</v>
+      </c>
+      <c r="B104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104">
+        <v>0.72</v>
+      </c>
+      <c r="D104">
+        <v>38.259998321533203</v>
+      </c>
+      <c r="E104">
+        <v>0.50294801300000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>82</v>
+      </c>
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105">
+        <v>0.73</v>
+      </c>
+      <c r="D105">
+        <v>38.259998321533203</v>
+      </c>
+      <c r="E105">
+        <v>0.50315892299999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>82</v>
+      </c>
+      <c r="B106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106">
+        <v>0.74</v>
+      </c>
+      <c r="D106">
+        <v>38.650001525878899</v>
+      </c>
+      <c r="E106">
+        <v>0.50244255199999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>82</v>
+      </c>
+      <c r="B107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107">
+        <v>0.75</v>
+      </c>
+      <c r="D107">
+        <v>38.139999389648402</v>
+      </c>
+      <c r="E107">
+        <v>0.50361176900000004</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>82</v>
+      </c>
+      <c r="B108" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108">
+        <v>0.76</v>
+      </c>
+      <c r="D108">
+        <v>38.900001525878899</v>
+      </c>
+      <c r="E108">
+        <v>0.50065356100000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>82</v>
+      </c>
+      <c r="B109" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109">
+        <v>0.77</v>
+      </c>
+      <c r="D109">
+        <v>38.759998321533203</v>
+      </c>
+      <c r="E109">
+        <v>0.50109340099999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>82</v>
+      </c>
+      <c r="B110" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110">
+        <v>0.78</v>
+      </c>
+      <c r="D110">
+        <v>38.419998168945298</v>
+      </c>
+      <c r="E110">
+        <v>0.502136743</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>82</v>
+      </c>
+      <c r="B111" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111">
+        <v>0.79</v>
+      </c>
+      <c r="D111">
+        <v>39.159999847412102</v>
+      </c>
+      <c r="E111">
+        <v>0.499577734</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>82</v>
+      </c>
+      <c r="B112" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112">
+        <v>0.8</v>
+      </c>
+      <c r="D112">
+        <v>38.880001068115199</v>
+      </c>
+      <c r="E112">
+        <v>0.50034451300000005</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>82</v>
+      </c>
+      <c r="B113" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113">
+        <v>0.81</v>
+      </c>
+      <c r="D113">
+        <v>38.770000457763601</v>
+      </c>
+      <c r="E113">
+        <v>0.50187848699999904</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>82</v>
+      </c>
+      <c r="B114" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114">
+        <v>0.82</v>
+      </c>
+      <c r="D114">
+        <v>38.540000915527301</v>
+      </c>
+      <c r="E114">
+        <v>0.50315236900000004</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>82</v>
+      </c>
+      <c r="B115" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115">
+        <v>0.83</v>
+      </c>
+      <c r="D115">
+        <v>39.069999694824197</v>
+      </c>
+      <c r="E115">
+        <v>0.50186246499999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>82</v>
+      </c>
+      <c r="B116" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116">
+        <v>0.84</v>
+      </c>
+      <c r="D116">
+        <v>38.490001678466797</v>
+      </c>
+      <c r="E116">
+        <v>0.50212372299999997</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>82</v>
+      </c>
+      <c r="B117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117">
+        <v>0.85</v>
+      </c>
+      <c r="D117">
+        <v>38.259998321533203</v>
+      </c>
+      <c r="E117">
+        <v>0.50268543399999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>82</v>
+      </c>
+      <c r="B118" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118">
+        <v>0.86</v>
+      </c>
+      <c r="D118">
+        <v>38.819999694824197</v>
+      </c>
+      <c r="E118">
+        <v>0.50093652600000005</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>82</v>
+      </c>
+      <c r="B119" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119">
+        <v>0.87</v>
+      </c>
+      <c r="D119">
+        <v>38.630001068115199</v>
+      </c>
+      <c r="E119">
+        <v>0.50222448600000003</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>82</v>
+      </c>
+      <c r="B120" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120">
+        <v>0.88</v>
+      </c>
+      <c r="D120">
+        <v>38.860000610351499</v>
+      </c>
+      <c r="E120">
+        <v>0.50133202300000002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>82</v>
+      </c>
+      <c r="B121" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121">
+        <v>0.89</v>
+      </c>
+      <c r="D121">
+        <v>38.659999847412102</v>
+      </c>
+      <c r="E121">
+        <v>0.50168732199999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>82</v>
+      </c>
+      <c r="B122" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122">
+        <v>0.9</v>
+      </c>
+      <c r="D122">
+        <v>38.840000152587798</v>
+      </c>
+      <c r="E122">
+        <v>0.50267400900000003</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>82</v>
+      </c>
+      <c r="B123" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123">
+        <v>0.91</v>
+      </c>
+      <c r="D123">
+        <v>38.790000915527301</v>
+      </c>
+      <c r="E123">
+        <v>0.50273758499999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>82</v>
+      </c>
+      <c r="B124" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124">
+        <v>0.92</v>
+      </c>
+      <c r="D124">
+        <v>38.720001220703097</v>
+      </c>
+      <c r="E124">
+        <v>0.50235374700000002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>82</v>
+      </c>
+      <c r="B125" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125">
+        <v>0.93</v>
+      </c>
+      <c r="D125">
+        <v>38.639999389648402</v>
+      </c>
+      <c r="E125">
+        <v>0.50274063000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>82</v>
+      </c>
+      <c r="B126" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126">
+        <v>0.94</v>
+      </c>
+      <c r="D126">
+        <v>38.709999084472599</v>
+      </c>
+      <c r="E126">
+        <v>0.50340260299999995</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>82</v>
+      </c>
+      <c r="B127" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127">
         <v>0.95</v>
       </c>
-      <c r="D32">
-        <v>38.959999084472599</v>
-      </c>
-      <c r="E32">
-        <v>0.50166041100000003</v>
+      <c r="D127">
+        <v>39.029998779296797</v>
+      </c>
+      <c r="E127">
+        <v>0.50157415000000005</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>82</v>
+      </c>
+      <c r="B128" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128">
+        <v>0.96</v>
+      </c>
+      <c r="D128">
+        <v>39.080001831054602</v>
+      </c>
+      <c r="E128">
+        <v>0.50181494100000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>82</v>
+      </c>
+      <c r="B129" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129">
+        <v>0.97</v>
+      </c>
+      <c r="D129">
+        <v>38.990001678466797</v>
+      </c>
+      <c r="E129">
+        <v>0.50228224399999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>82</v>
+      </c>
+      <c r="B130" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130">
+        <v>0.98</v>
+      </c>
+      <c r="D130">
+        <v>38.9799995422363</v>
+      </c>
+      <c r="E130">
+        <v>0.50226750099999995</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>82</v>
+      </c>
+      <c r="B131" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131">
+        <v>0.99</v>
+      </c>
+      <c r="D131">
+        <v>39.150001525878899</v>
+      </c>
+      <c r="E131">
+        <v>0.50237688899999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>83</v>
+      </c>
+      <c r="B132" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>37.540000915527301</v>
+      </c>
+      <c r="E132">
+        <v>0.50214946599999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>83</v>
+      </c>
+      <c r="B133" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133">
+        <v>0.01</v>
+      </c>
+      <c r="D133">
+        <v>37.939998626708899</v>
+      </c>
+      <c r="E133">
+        <v>0.50119088999999994</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>83</v>
+      </c>
+      <c r="B134" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134">
+        <v>0.02</v>
+      </c>
+      <c r="D134">
+        <v>37.319999694824197</v>
+      </c>
+      <c r="E134">
+        <v>0.50163640199999904</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>83</v>
+      </c>
+      <c r="B135" t="s">
+        <v>15</v>
+      </c>
+      <c r="C135">
+        <v>0.03</v>
+      </c>
+      <c r="D135">
+        <v>37.349998474121001</v>
+      </c>
+      <c r="E135">
+        <v>0.50335805499999997</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>83</v>
+      </c>
+      <c r="B136" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136">
+        <v>0.04</v>
+      </c>
+      <c r="D136">
+        <v>37.849998474121001</v>
+      </c>
+      <c r="E136">
+        <v>0.50211970900000003</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>83</v>
+      </c>
+      <c r="B137" t="s">
+        <v>15</v>
+      </c>
+      <c r="C137">
+        <v>0.05</v>
+      </c>
+      <c r="D137">
+        <v>37.939998626708899</v>
+      </c>
+      <c r="E137">
+        <v>0.50122247099999995</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>83</v>
+      </c>
+      <c r="B138" t="s">
+        <v>15</v>
+      </c>
+      <c r="C138">
+        <v>0.06</v>
+      </c>
+      <c r="D138">
+        <v>37.520000457763601</v>
+      </c>
+      <c r="E138">
+        <v>0.50130467899999998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>83</v>
+      </c>
+      <c r="B139" t="s">
+        <v>15</v>
+      </c>
+      <c r="C139">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D139">
+        <v>37.909999847412102</v>
+      </c>
+      <c r="E139">
+        <v>0.50131450099999997</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>83</v>
+      </c>
+      <c r="B140" t="s">
+        <v>15</v>
+      </c>
+      <c r="C140">
+        <v>0.08</v>
+      </c>
+      <c r="D140">
+        <v>37.430000305175703</v>
+      </c>
+      <c r="E140">
+        <v>0.50405183899999995</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>83</v>
+      </c>
+      <c r="B141" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141">
+        <v>0.09</v>
+      </c>
+      <c r="D141">
+        <v>37.700000762939403</v>
+      </c>
+      <c r="E141">
+        <v>0.50272074299999903</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>83</v>
+      </c>
+      <c r="B142" t="s">
+        <v>15</v>
+      </c>
+      <c r="C142">
+        <v>0.1</v>
+      </c>
+      <c r="D142">
+        <v>37.880001068115199</v>
+      </c>
+      <c r="E142">
+        <v>0.50218285200000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>83</v>
+      </c>
+      <c r="B143" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143">
+        <v>0.11</v>
+      </c>
+      <c r="D143">
+        <v>37.790000915527301</v>
+      </c>
+      <c r="E143">
+        <v>0.50184697599999994</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>83</v>
+      </c>
+      <c r="B144" t="s">
+        <v>15</v>
+      </c>
+      <c r="C144">
+        <v>0.12</v>
+      </c>
+      <c r="D144">
+        <v>37.840000152587798</v>
+      </c>
+      <c r="E144">
+        <v>0.50133473100000003</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>83</v>
+      </c>
+      <c r="B145" t="s">
+        <v>15</v>
+      </c>
+      <c r="C145">
+        <v>0.13</v>
+      </c>
+      <c r="D145">
+        <v>37.540000915527301</v>
+      </c>
+      <c r="E145">
+        <v>0.50257376399999998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>83</v>
+      </c>
+      <c r="B146" t="s">
+        <v>15</v>
+      </c>
+      <c r="C146">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D146">
+        <v>38.029998779296797</v>
+      </c>
+      <c r="E146">
+        <v>0.502610212</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>83</v>
+      </c>
+      <c r="B147" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147">
+        <v>0.15</v>
+      </c>
+      <c r="D147">
+        <v>37.909999847412102</v>
+      </c>
+      <c r="E147">
+        <v>0.50298733799999995</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>83</v>
+      </c>
+      <c r="B148" t="s">
+        <v>15</v>
+      </c>
+      <c r="C148">
+        <v>0.16</v>
+      </c>
+      <c r="D148">
+        <v>37.779998779296797</v>
+      </c>
+      <c r="E148">
+        <v>0.50092849100000003</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>83</v>
+      </c>
+      <c r="B149" t="s">
+        <v>15</v>
+      </c>
+      <c r="C149">
+        <v>0.17</v>
+      </c>
+      <c r="D149">
+        <v>37.709999084472599</v>
+      </c>
+      <c r="E149">
+        <v>0.50229206100000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>83</v>
+      </c>
+      <c r="B150" t="s">
+        <v>15</v>
+      </c>
+      <c r="C150">
+        <v>0.18</v>
+      </c>
+      <c r="D150">
+        <v>37.75</v>
+      </c>
+      <c r="E150">
+        <v>0.50209873299999996</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>83</v>
+      </c>
+      <c r="B151" t="s">
+        <v>15</v>
+      </c>
+      <c r="C151">
+        <v>0.19</v>
+      </c>
+      <c r="D151">
+        <v>37.860000610351499</v>
+      </c>
+      <c r="E151">
+        <v>0.50168101499999995</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>83</v>
+      </c>
+      <c r="B152" t="s">
+        <v>15</v>
+      </c>
+      <c r="C152">
+        <v>0.2</v>
+      </c>
+      <c r="D152">
+        <v>37.860000610351499</v>
+      </c>
+      <c r="E152">
+        <v>0.50337281199999995</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>83</v>
+      </c>
+      <c r="B153" t="s">
+        <v>15</v>
+      </c>
+      <c r="C153">
+        <v>0.21</v>
+      </c>
+      <c r="D153">
+        <v>38</v>
+      </c>
+      <c r="E153">
+        <v>0.50240116599999995</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>83</v>
+      </c>
+      <c r="B154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154">
+        <v>0.22</v>
+      </c>
+      <c r="D154">
+        <v>37.819999694824197</v>
+      </c>
+      <c r="E154">
+        <v>0.50184918099999998</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>83</v>
+      </c>
+      <c r="B155" t="s">
+        <v>15</v>
+      </c>
+      <c r="C155">
+        <v>0.23</v>
+      </c>
+      <c r="D155">
+        <v>37.810001373291001</v>
+      </c>
+      <c r="E155">
+        <v>0.50437611999999998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>83</v>
+      </c>
+      <c r="B156" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156">
+        <v>0.24</v>
+      </c>
+      <c r="D156">
+        <v>37.810001373291001</v>
+      </c>
+      <c r="E156">
+        <v>0.500702647</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>83</v>
+      </c>
+      <c r="B157" t="s">
+        <v>15</v>
+      </c>
+      <c r="C157">
+        <v>0.25</v>
+      </c>
+      <c r="D157">
+        <v>37.990001678466797</v>
+      </c>
+      <c r="E157">
+        <v>0.50109037099999998</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>83</v>
+      </c>
+      <c r="B158" t="s">
+        <v>15</v>
+      </c>
+      <c r="C158">
+        <v>0.26</v>
+      </c>
+      <c r="D158">
+        <v>37.669998168945298</v>
+      </c>
+      <c r="E158">
+        <v>0.50153624200000002</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>83</v>
+      </c>
+      <c r="B159" t="s">
+        <v>15</v>
+      </c>
+      <c r="C159">
+        <v>0.27</v>
+      </c>
+      <c r="D159">
+        <v>38.119998931884702</v>
+      </c>
+      <c r="E159">
+        <v>0.50181568899999995</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>83</v>
+      </c>
+      <c r="B160" t="s">
+        <v>15</v>
+      </c>
+      <c r="C160">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D160">
+        <v>38.220001220703097</v>
+      </c>
+      <c r="E160">
+        <v>0.50294095999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>83</v>
+      </c>
+      <c r="B161" t="s">
+        <v>15</v>
+      </c>
+      <c r="C161">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D161">
+        <v>37.610000610351499</v>
+      </c>
+      <c r="E161">
+        <v>0.50196282400000003</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>83</v>
+      </c>
+      <c r="B162" t="s">
+        <v>15</v>
+      </c>
+      <c r="C162">
+        <v>0.3</v>
+      </c>
+      <c r="D162">
+        <v>37.959999084472599</v>
+      </c>
+      <c r="E162">
+        <v>0.50254140199999997</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>83</v>
+      </c>
+      <c r="B163" t="s">
+        <v>15</v>
+      </c>
+      <c r="C163">
+        <v>0.31</v>
+      </c>
+      <c r="D163">
+        <v>38.849998474121001</v>
+      </c>
+      <c r="E163">
+        <v>0.50261349</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>83</v>
+      </c>
+      <c r="B164" t="s">
+        <v>15</v>
+      </c>
+      <c r="C164">
+        <v>0.32</v>
+      </c>
+      <c r="D164">
+        <v>38.299999237060497</v>
+      </c>
+      <c r="E164">
+        <v>0.49952089999999899</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>83</v>
+      </c>
+      <c r="B165" t="s">
+        <v>15</v>
+      </c>
+      <c r="C165">
+        <v>0.33</v>
+      </c>
+      <c r="D165">
+        <v>37.75</v>
+      </c>
+      <c r="E165">
+        <v>0.50140060799999997</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>83</v>
+      </c>
+      <c r="B166" t="s">
+        <v>15</v>
+      </c>
+      <c r="C166">
+        <v>0.34</v>
+      </c>
+      <c r="D166">
+        <v>38.040000915527301</v>
+      </c>
+      <c r="E166">
+        <v>0.50175916700000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>83</v>
+      </c>
+      <c r="B167" t="s">
+        <v>15</v>
+      </c>
+      <c r="C167">
+        <v>0.35</v>
+      </c>
+      <c r="D167">
+        <v>37.959999084472599</v>
+      </c>
+      <c r="E167">
+        <v>0.50177256299999995</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>83</v>
+      </c>
+      <c r="B168" t="s">
+        <v>15</v>
+      </c>
+      <c r="C168">
+        <v>0.36</v>
+      </c>
+      <c r="D168">
+        <v>38.409999847412102</v>
+      </c>
+      <c r="E168">
+        <v>0.50207086099999998</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>83</v>
+      </c>
+      <c r="B169" t="s">
+        <v>15</v>
+      </c>
+      <c r="C169">
+        <v>0.37</v>
+      </c>
+      <c r="D169">
+        <v>37.830001831054602</v>
+      </c>
+      <c r="E169">
+        <v>0.50211155299999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>83</v>
+      </c>
+      <c r="B170" t="s">
+        <v>15</v>
+      </c>
+      <c r="C170">
+        <v>0.38</v>
+      </c>
+      <c r="D170">
+        <v>38.360000610351499</v>
+      </c>
+      <c r="E170">
+        <v>0.50082361200000003</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>83</v>
+      </c>
+      <c r="B171" t="s">
+        <v>15</v>
+      </c>
+      <c r="C171">
+        <v>0.39</v>
+      </c>
+      <c r="D171">
+        <v>38.220001220703097</v>
+      </c>
+      <c r="E171">
+        <v>0.50195084999999995</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>83</v>
+      </c>
+      <c r="B172" t="s">
+        <v>15</v>
+      </c>
+      <c r="C172">
+        <v>0.4</v>
+      </c>
+      <c r="D172">
+        <v>38.610000610351499</v>
+      </c>
+      <c r="E172">
+        <v>0.50069042799999997</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>83</v>
+      </c>
+      <c r="B173" t="s">
+        <v>15</v>
+      </c>
+      <c r="C173">
+        <v>0.41</v>
+      </c>
+      <c r="D173">
+        <v>38.200000762939403</v>
+      </c>
+      <c r="E173">
+        <v>0.50221835299999995</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>83</v>
+      </c>
+      <c r="B174" t="s">
+        <v>15</v>
+      </c>
+      <c r="C174">
+        <v>0.42</v>
+      </c>
+      <c r="D174">
+        <v>37.950000762939403</v>
+      </c>
+      <c r="E174">
+        <v>0.50352171899999998</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>83</v>
+      </c>
+      <c r="B175" t="s">
+        <v>15</v>
+      </c>
+      <c r="C175">
+        <v>0.43</v>
+      </c>
+      <c r="D175">
+        <v>38.139999389648402</v>
+      </c>
+      <c r="E175">
+        <v>0.50166183200000003</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>83</v>
+      </c>
+      <c r="B176" t="s">
+        <v>15</v>
+      </c>
+      <c r="C176">
+        <v>0.44</v>
+      </c>
+      <c r="D176">
+        <v>38.189998626708899</v>
+      </c>
+      <c r="E176">
+        <v>0.50188253999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>83</v>
+      </c>
+      <c r="B177" t="s">
+        <v>15</v>
+      </c>
+      <c r="C177">
+        <v>0.45</v>
+      </c>
+      <c r="D177">
+        <v>37.830001831054602</v>
+      </c>
+      <c r="E177">
+        <v>0.50201625699999997</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>83</v>
+      </c>
+      <c r="B178" t="s">
+        <v>15</v>
+      </c>
+      <c r="C178">
+        <v>0.46</v>
+      </c>
+      <c r="D178">
+        <v>38.290000915527301</v>
+      </c>
+      <c r="E178">
+        <v>0.50156741199999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>83</v>
+      </c>
+      <c r="B179" t="s">
+        <v>15</v>
+      </c>
+      <c r="C179">
+        <v>0.47</v>
+      </c>
+      <c r="D179">
+        <v>38.540000915527301</v>
+      </c>
+      <c r="E179">
+        <v>0.50264607100000003</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>83</v>
+      </c>
+      <c r="B180" t="s">
+        <v>15</v>
+      </c>
+      <c r="C180">
+        <v>0.48</v>
+      </c>
+      <c r="D180">
+        <v>38.2299995422363</v>
+      </c>
+      <c r="E180">
+        <v>0.50338745699999998</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>83</v>
+      </c>
+      <c r="B181" t="s">
+        <v>15</v>
+      </c>
+      <c r="C181">
+        <v>0.49</v>
+      </c>
+      <c r="D181">
+        <v>38.220001220703097</v>
+      </c>
+      <c r="E181">
+        <v>0.502343451</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>83</v>
+      </c>
+      <c r="B182" t="s">
+        <v>15</v>
+      </c>
+      <c r="C182">
+        <v>0.5</v>
+      </c>
+      <c r="D182">
+        <v>38.360000610351499</v>
+      </c>
+      <c r="E182">
+        <v>0.50099556599999995</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>83</v>
+      </c>
+      <c r="B183" t="s">
+        <v>15</v>
+      </c>
+      <c r="C183">
+        <v>0.51</v>
+      </c>
+      <c r="D183">
+        <v>38.049999237060497</v>
+      </c>
+      <c r="E183">
+        <v>0.50201058099999996</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>83</v>
+      </c>
+      <c r="B184" t="s">
+        <v>15</v>
+      </c>
+      <c r="C184">
+        <v>0.52</v>
+      </c>
+      <c r="D184">
+        <v>38.450000762939403</v>
+      </c>
+      <c r="E184">
+        <v>0.50246674999999996</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>83</v>
+      </c>
+      <c r="B185" t="s">
+        <v>15</v>
+      </c>
+      <c r="C185">
+        <v>0.53</v>
+      </c>
+      <c r="D185">
+        <v>38.240001678466797</v>
+      </c>
+      <c r="E185">
+        <v>0.50232918599999998</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>83</v>
+      </c>
+      <c r="B186" t="s">
+        <v>15</v>
+      </c>
+      <c r="C186">
+        <v>0.54</v>
+      </c>
+      <c r="D186">
+        <v>38.099998474121001</v>
+      </c>
+      <c r="E186">
+        <v>0.50338931499999995</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>83</v>
+      </c>
+      <c r="B187" t="s">
+        <v>15</v>
+      </c>
+      <c r="C187">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D187">
+        <v>38.200000762939403</v>
+      </c>
+      <c r="E187">
+        <v>0.501767674</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>83</v>
+      </c>
+      <c r="B188" t="s">
+        <v>15</v>
+      </c>
+      <c r="C188">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D188">
+        <v>37.700000762939403</v>
+      </c>
+      <c r="E188">
+        <v>0.50264533</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>83</v>
+      </c>
+      <c r="B189" t="s">
+        <v>15</v>
+      </c>
+      <c r="C189">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D189">
+        <v>38.389999389648402</v>
+      </c>
+      <c r="E189">
+        <v>0.50214509900000004</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>83</v>
+      </c>
+      <c r="B190" t="s">
+        <v>15</v>
+      </c>
+      <c r="C190">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D190">
+        <v>38.540000915527301</v>
+      </c>
+      <c r="E190">
+        <v>0.50332193299999906</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>83</v>
+      </c>
+      <c r="B191" t="s">
+        <v>15</v>
+      </c>
+      <c r="C191">
+        <v>0.59</v>
+      </c>
+      <c r="D191">
+        <v>38.349998474121001</v>
+      </c>
+      <c r="E191">
+        <v>0.50202391000000002</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>83</v>
+      </c>
+      <c r="B192" t="s">
+        <v>15</v>
+      </c>
+      <c r="C192">
+        <v>0.6</v>
+      </c>
+      <c r="D192">
+        <v>38.119998931884702</v>
+      </c>
+      <c r="E192">
+        <v>0.50173828799999998</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>83</v>
+      </c>
+      <c r="B193" t="s">
+        <v>15</v>
+      </c>
+      <c r="C193">
+        <v>0.61</v>
+      </c>
+      <c r="D193">
+        <v>38.580001831054602</v>
+      </c>
+      <c r="E193">
+        <v>0.50165302499999997</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>83</v>
+      </c>
+      <c r="B194" t="s">
+        <v>15</v>
+      </c>
+      <c r="C194">
+        <v>0.62</v>
+      </c>
+      <c r="D194">
+        <v>38.220001220703097</v>
+      </c>
+      <c r="E194">
+        <v>0.50325082799999998</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>83</v>
+      </c>
+      <c r="B195" t="s">
+        <v>15</v>
+      </c>
+      <c r="C195">
+        <v>0.63</v>
+      </c>
+      <c r="D195">
+        <v>37.700000762939403</v>
+      </c>
+      <c r="E195">
+        <v>0.50281012999999997</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>83</v>
+      </c>
+      <c r="B196" t="s">
+        <v>15</v>
+      </c>
+      <c r="C196">
+        <v>0.64</v>
+      </c>
+      <c r="D196">
+        <v>37.889999389648402</v>
+      </c>
+      <c r="E196">
+        <v>0.50370319099999905</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>83</v>
+      </c>
+      <c r="B197" t="s">
+        <v>15</v>
+      </c>
+      <c r="C197">
+        <v>0.65</v>
+      </c>
+      <c r="D197">
+        <v>38.740001678466797</v>
+      </c>
+      <c r="E197">
+        <v>0.50158796100000003</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>83</v>
+      </c>
+      <c r="B198" t="s">
+        <v>15</v>
+      </c>
+      <c r="C198">
+        <v>0.66</v>
+      </c>
+      <c r="D198">
+        <v>38.549999237060497</v>
+      </c>
+      <c r="E198">
+        <v>0.50163971799999996</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>83</v>
+      </c>
+      <c r="B199" t="s">
+        <v>15</v>
+      </c>
+      <c r="C199">
+        <v>0.67</v>
+      </c>
+      <c r="D199">
+        <v>38.869998931884702</v>
+      </c>
+      <c r="E199">
+        <v>0.50147861599999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>83</v>
+      </c>
+      <c r="B200" t="s">
+        <v>15</v>
+      </c>
+      <c r="C200">
+        <v>0.68</v>
+      </c>
+      <c r="D200">
+        <v>38.340000152587798</v>
+      </c>
+      <c r="E200">
+        <v>0.50308304199999998</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>83</v>
+      </c>
+      <c r="B201" t="s">
+        <v>15</v>
+      </c>
+      <c r="C201">
+        <v>0.69</v>
+      </c>
+      <c r="D201">
+        <v>38.360000610351499</v>
+      </c>
+      <c r="E201">
+        <v>0.50221851200000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>83</v>
+      </c>
+      <c r="B202" t="s">
+        <v>15</v>
+      </c>
+      <c r="C202">
+        <v>0.7</v>
+      </c>
+      <c r="D202">
+        <v>38.430000305175703</v>
+      </c>
+      <c r="E202">
+        <v>0.50232015899999904</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>83</v>
+      </c>
+      <c r="B203" t="s">
+        <v>15</v>
+      </c>
+      <c r="C203">
+        <v>0.71</v>
+      </c>
+      <c r="D203">
+        <v>38.650001525878899</v>
+      </c>
+      <c r="E203">
+        <v>0.50149539700000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>83</v>
+      </c>
+      <c r="B204" t="s">
+        <v>15</v>
+      </c>
+      <c r="C204">
+        <v>0.72</v>
+      </c>
+      <c r="D204">
+        <v>38.720001220703097</v>
+      </c>
+      <c r="E204">
+        <v>0.50246198900000005</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>83</v>
+      </c>
+      <c r="B205" t="s">
+        <v>15</v>
+      </c>
+      <c r="C205">
+        <v>0.73</v>
+      </c>
+      <c r="D205">
+        <v>38.259998321533203</v>
+      </c>
+      <c r="E205">
+        <v>0.50305070799999996</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>83</v>
+      </c>
+      <c r="B206" t="s">
+        <v>15</v>
+      </c>
+      <c r="C206">
+        <v>0.74</v>
+      </c>
+      <c r="D206">
+        <v>38.700000762939403</v>
+      </c>
+      <c r="E206">
+        <v>0.50203842499999995</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>83</v>
+      </c>
+      <c r="B207" t="s">
+        <v>15</v>
+      </c>
+      <c r="C207">
+        <v>0.75</v>
+      </c>
+      <c r="D207">
+        <v>38.680000305175703</v>
+      </c>
+      <c r="E207">
+        <v>0.50273088199999905</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>83</v>
+      </c>
+      <c r="B208" t="s">
+        <v>15</v>
+      </c>
+      <c r="C208">
+        <v>0.76</v>
+      </c>
+      <c r="D208">
+        <v>38.740001678466797</v>
+      </c>
+      <c r="E208">
+        <v>0.50262684499999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>83</v>
+      </c>
+      <c r="B209" t="s">
+        <v>15</v>
+      </c>
+      <c r="C209">
+        <v>0.77</v>
+      </c>
+      <c r="D209">
+        <v>38.580001831054602</v>
+      </c>
+      <c r="E209">
+        <v>0.50195006499999995</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>83</v>
+      </c>
+      <c r="B210" t="s">
+        <v>15</v>
+      </c>
+      <c r="C210">
+        <v>0.78</v>
+      </c>
+      <c r="D210">
+        <v>38.700000762939403</v>
+      </c>
+      <c r="E210">
+        <v>0.50178678799999998</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>83</v>
+      </c>
+      <c r="B211" t="s">
+        <v>15</v>
+      </c>
+      <c r="C211">
+        <v>0.79</v>
+      </c>
+      <c r="D211">
+        <v>38.799999237060497</v>
+      </c>
+      <c r="E211">
+        <v>0.50158292100000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>83</v>
+      </c>
+      <c r="B212" t="s">
+        <v>15</v>
+      </c>
+      <c r="C212">
+        <v>0.8</v>
+      </c>
+      <c r="D212">
+        <v>38.689998626708899</v>
+      </c>
+      <c r="E212">
+        <v>0.50262642999999996</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>83</v>
+      </c>
+      <c r="B213" t="s">
+        <v>15</v>
+      </c>
+      <c r="C213">
+        <v>0.81</v>
+      </c>
+      <c r="D213">
+        <v>38.630001068115199</v>
+      </c>
+      <c r="E213">
+        <v>0.50148822699999995</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>83</v>
+      </c>
+      <c r="B214" t="s">
+        <v>15</v>
+      </c>
+      <c r="C214">
+        <v>0.82</v>
+      </c>
+      <c r="D214">
+        <v>39.25</v>
+      </c>
+      <c r="E214">
+        <v>0.50174408500000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>83</v>
+      </c>
+      <c r="B215" t="s">
+        <v>15</v>
+      </c>
+      <c r="C215">
+        <v>0.83</v>
+      </c>
+      <c r="D215">
+        <v>38.700000762939403</v>
+      </c>
+      <c r="E215">
+        <v>0.50170851399999905</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>83</v>
+      </c>
+      <c r="B216" t="s">
+        <v>15</v>
+      </c>
+      <c r="C216">
+        <v>0.84</v>
+      </c>
+      <c r="D216">
+        <v>38.740001678466797</v>
+      </c>
+      <c r="E216">
+        <v>0.501718946</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>83</v>
+      </c>
+      <c r="B217" t="s">
+        <v>15</v>
+      </c>
+      <c r="C217">
+        <v>0.85</v>
+      </c>
+      <c r="D217">
+        <v>38.689998626708899</v>
+      </c>
+      <c r="E217">
+        <v>0.50245643200000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>83</v>
+      </c>
+      <c r="B218" t="s">
+        <v>15</v>
+      </c>
+      <c r="C218">
+        <v>0.86</v>
+      </c>
+      <c r="D218">
+        <v>38.659999847412102</v>
+      </c>
+      <c r="E218">
+        <v>0.50318478799999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>83</v>
+      </c>
+      <c r="B219" t="s">
+        <v>15</v>
+      </c>
+      <c r="C219">
+        <v>0.87</v>
+      </c>
+      <c r="D219">
+        <v>38.9799995422363</v>
+      </c>
+      <c r="E219">
+        <v>0.501402456</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>83</v>
+      </c>
+      <c r="B220" t="s">
+        <v>15</v>
+      </c>
+      <c r="C220">
+        <v>0.88</v>
+      </c>
+      <c r="D220">
+        <v>38.880001068115199</v>
+      </c>
+      <c r="E220">
+        <v>0.50146885299999999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>83</v>
+      </c>
+      <c r="B221" t="s">
+        <v>15</v>
+      </c>
+      <c r="C221">
+        <v>0.89</v>
+      </c>
+      <c r="D221">
+        <v>38.669998168945298</v>
+      </c>
+      <c r="E221">
+        <v>0.50263622299999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>83</v>
+      </c>
+      <c r="B222" t="s">
+        <v>15</v>
+      </c>
+      <c r="C222">
+        <v>0.9</v>
+      </c>
+      <c r="D222">
+        <v>38.569999694824197</v>
+      </c>
+      <c r="E222">
+        <v>0.50190084999999995</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>83</v>
+      </c>
+      <c r="B223" t="s">
+        <v>15</v>
+      </c>
+      <c r="C223">
+        <v>0.91</v>
+      </c>
+      <c r="D223">
+        <v>38.770000457763601</v>
+      </c>
+      <c r="E223">
+        <v>0.50279850500000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>83</v>
+      </c>
+      <c r="B224" t="s">
+        <v>15</v>
+      </c>
+      <c r="C224">
+        <v>0.92</v>
+      </c>
+      <c r="D224">
+        <v>38.799999237060497</v>
+      </c>
+      <c r="E224">
+        <v>0.502015137</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>83</v>
+      </c>
+      <c r="B225" t="s">
+        <v>15</v>
+      </c>
+      <c r="C225">
+        <v>0.93</v>
+      </c>
+      <c r="D225">
+        <v>38.610000610351499</v>
+      </c>
+      <c r="E225">
+        <v>0.50280573100000003</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>83</v>
+      </c>
+      <c r="B226" t="s">
+        <v>15</v>
+      </c>
+      <c r="C226">
+        <v>0.94</v>
+      </c>
+      <c r="D226">
+        <v>38.950000762939403</v>
+      </c>
+      <c r="E226">
+        <v>0.50224516699999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>83</v>
+      </c>
+      <c r="B227" t="s">
+        <v>15</v>
+      </c>
+      <c r="C227">
+        <v>0.95</v>
+      </c>
+      <c r="D227">
+        <v>38.990001678466797</v>
+      </c>
+      <c r="E227">
+        <v>0.50203517499999994</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>83</v>
+      </c>
+      <c r="B228" t="s">
+        <v>15</v>
+      </c>
+      <c r="C228">
+        <v>0.96</v>
+      </c>
+      <c r="D228">
+        <v>38.580001831054602</v>
+      </c>
+      <c r="E228">
+        <v>0.50226205099999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>83</v>
+      </c>
+      <c r="B229" t="s">
+        <v>15</v>
+      </c>
+      <c r="C229">
+        <v>0.97</v>
+      </c>
+      <c r="D229">
+        <v>39.340000152587798</v>
+      </c>
+      <c r="E229">
+        <v>0.50190995299999996</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>83</v>
+      </c>
+      <c r="B230" t="s">
+        <v>15</v>
+      </c>
+      <c r="C230">
+        <v>0.98</v>
+      </c>
+      <c r="D230">
+        <v>38.930000305175703</v>
+      </c>
+      <c r="E230">
+        <v>0.50229461600000003</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>83</v>
+      </c>
+      <c r="B231" t="s">
+        <v>15</v>
+      </c>
+      <c r="C231">
+        <v>0.99</v>
+      </c>
+      <c r="D231">
+        <v>38.840000152587798</v>
+      </c>
+      <c r="E231">
+        <v>0.501464401</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>84</v>
+      </c>
+      <c r="B232" t="s">
+        <v>16</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>37.540000915527301</v>
+      </c>
+      <c r="E232">
+        <v>0.502149489</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>84</v>
+      </c>
+      <c r="B233" t="s">
+        <v>16</v>
+      </c>
+      <c r="C233">
+        <v>0.01</v>
+      </c>
+      <c r="D233">
+        <v>37.860000610351499</v>
+      </c>
+      <c r="E233">
+        <v>0.50158774399999995</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>84</v>
+      </c>
+      <c r="B234" t="s">
+        <v>16</v>
+      </c>
+      <c r="C234">
+        <v>0.02</v>
+      </c>
+      <c r="D234">
+        <v>37.799999237060497</v>
+      </c>
+      <c r="E234">
+        <v>0.50067916699999904</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>84</v>
+      </c>
+      <c r="B235" t="s">
+        <v>16</v>
+      </c>
+      <c r="C235">
+        <v>0.03</v>
+      </c>
+      <c r="D235">
+        <v>37.569999694824197</v>
+      </c>
+      <c r="E235">
+        <v>0.50202038199999999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>84</v>
+      </c>
+      <c r="B236" t="s">
+        <v>16</v>
+      </c>
+      <c r="C236">
+        <v>0.04</v>
+      </c>
+      <c r="D236">
+        <v>37.779998779296797</v>
+      </c>
+      <c r="E236">
+        <v>0.50095289300000001</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>84</v>
+      </c>
+      <c r="B237" t="s">
+        <v>16</v>
+      </c>
+      <c r="C237">
+        <v>0.05</v>
+      </c>
+      <c r="D237">
+        <v>37.369998931884702</v>
+      </c>
+      <c r="E237">
+        <v>0.50233557500000003</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>84</v>
+      </c>
+      <c r="B238" t="s">
+        <v>16</v>
+      </c>
+      <c r="C238">
+        <v>0.06</v>
+      </c>
+      <c r="D238">
+        <v>37.790000915527301</v>
+      </c>
+      <c r="E238">
+        <v>0.50253001899999905</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>84</v>
+      </c>
+      <c r="B239" t="s">
+        <v>16</v>
+      </c>
+      <c r="C239">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D239">
+        <v>37.5</v>
+      </c>
+      <c r="E239">
+        <v>0.50230866799999996</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>84</v>
+      </c>
+      <c r="B240" t="s">
+        <v>16</v>
+      </c>
+      <c r="C240">
+        <v>0.08</v>
+      </c>
+      <c r="D240">
+        <v>37.569999694824197</v>
+      </c>
+      <c r="E240">
+        <v>0.50256447999999998</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>84</v>
+      </c>
+      <c r="B241" t="s">
+        <v>16</v>
+      </c>
+      <c r="C241">
+        <v>0.09</v>
+      </c>
+      <c r="D241">
+        <v>37.799999237060497</v>
+      </c>
+      <c r="E241">
+        <v>0.50200314299999904</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>84</v>
+      </c>
+      <c r="B242" t="s">
+        <v>16</v>
+      </c>
+      <c r="C242">
+        <v>0.1</v>
+      </c>
+      <c r="D242">
+        <v>37.5</v>
+      </c>
+      <c r="E242">
+        <v>0.50107361800000005</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>84</v>
+      </c>
+      <c r="B243" t="s">
+        <v>16</v>
+      </c>
+      <c r="C243">
+        <v>0.11</v>
+      </c>
+      <c r="D243">
+        <v>37.779998779296797</v>
+      </c>
+      <c r="E243">
+        <v>0.50213936999999997</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>84</v>
+      </c>
+      <c r="B244" t="s">
+        <v>16</v>
+      </c>
+      <c r="C244">
+        <v>0.12</v>
+      </c>
+      <c r="D244">
+        <v>37.580001831054602</v>
+      </c>
+      <c r="E244">
+        <v>0.50122125499999903</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>84</v>
+      </c>
+      <c r="B245" t="s">
+        <v>16</v>
+      </c>
+      <c r="C245">
+        <v>0.13</v>
+      </c>
+      <c r="D245">
+        <v>37.430000305175703</v>
+      </c>
+      <c r="E245">
+        <v>0.50395408200000003</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>84</v>
+      </c>
+      <c r="B246" t="s">
+        <v>16</v>
+      </c>
+      <c r="C246">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D246">
+        <v>38.490001678466797</v>
+      </c>
+      <c r="E246">
+        <v>0.50225742600000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>84</v>
+      </c>
+      <c r="B247" t="s">
+        <v>16</v>
+      </c>
+      <c r="C247">
+        <v>0.15</v>
+      </c>
+      <c r="D247">
+        <v>37.310001373291001</v>
+      </c>
+      <c r="E247">
+        <v>0.50335814400000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>84</v>
+      </c>
+      <c r="B248" t="s">
+        <v>16</v>
+      </c>
+      <c r="C248">
+        <v>0.16</v>
+      </c>
+      <c r="D248">
+        <v>37.659999847412102</v>
+      </c>
+      <c r="E248">
+        <v>0.50227193799999903</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>84</v>
+      </c>
+      <c r="B249" t="s">
+        <v>16</v>
+      </c>
+      <c r="C249">
+        <v>0.17</v>
+      </c>
+      <c r="D249">
+        <v>37.959999084472599</v>
+      </c>
+      <c r="E249">
+        <v>0.50108496300000005</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>84</v>
+      </c>
+      <c r="B250" t="s">
+        <v>16</v>
+      </c>
+      <c r="C250">
+        <v>0.18</v>
+      </c>
+      <c r="D250">
+        <v>37.770000457763601</v>
+      </c>
+      <c r="E250">
+        <v>0.50303034899999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>84</v>
+      </c>
+      <c r="B251" t="s">
+        <v>16</v>
+      </c>
+      <c r="C251">
+        <v>0.19</v>
+      </c>
+      <c r="D251">
+        <v>37.900001525878899</v>
+      </c>
+      <c r="E251">
+        <v>0.50154290099999999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>84</v>
+      </c>
+      <c r="B252" t="s">
+        <v>16</v>
+      </c>
+      <c r="C252">
+        <v>0.2</v>
+      </c>
+      <c r="D252">
+        <v>37.619998931884702</v>
+      </c>
+      <c r="E252">
+        <v>0.50286653000000003</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>84</v>
+      </c>
+      <c r="B253" t="s">
+        <v>16</v>
+      </c>
+      <c r="C253">
+        <v>0.21</v>
+      </c>
+      <c r="D253">
+        <v>38.040000915527301</v>
+      </c>
+      <c r="E253">
+        <v>0.50218375699999995</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>84</v>
+      </c>
+      <c r="B254" t="s">
+        <v>16</v>
+      </c>
+      <c r="C254">
+        <v>0.22</v>
+      </c>
+      <c r="D254">
+        <v>37.909999847412102</v>
+      </c>
+      <c r="E254">
+        <v>0.50244104499999998</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>84</v>
+      </c>
+      <c r="B255" t="s">
+        <v>16</v>
+      </c>
+      <c r="C255">
+        <v>0.23</v>
+      </c>
+      <c r="D255">
+        <v>38.220001220703097</v>
+      </c>
+      <c r="E255">
+        <v>0.50068099099999996</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>84</v>
+      </c>
+      <c r="B256" t="s">
+        <v>16</v>
+      </c>
+      <c r="C256">
+        <v>0.24</v>
+      </c>
+      <c r="D256">
+        <v>38.020000457763601</v>
+      </c>
+      <c r="E256">
+        <v>0.50034318499999997</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>84</v>
+      </c>
+      <c r="B257" t="s">
+        <v>16</v>
+      </c>
+      <c r="C257">
+        <v>0.25</v>
+      </c>
+      <c r="D257">
+        <v>38.020000457763601</v>
+      </c>
+      <c r="E257">
+        <v>0.50072972800000004</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>84</v>
+      </c>
+      <c r="B258" t="s">
+        <v>16</v>
+      </c>
+      <c r="C258">
+        <v>0.26</v>
+      </c>
+      <c r="D258">
+        <v>38</v>
+      </c>
+      <c r="E258">
+        <v>0.50109210900000001</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>84</v>
+      </c>
+      <c r="B259" t="s">
+        <v>16</v>
+      </c>
+      <c r="C259">
+        <v>0.27</v>
+      </c>
+      <c r="D259">
+        <v>37.590000152587798</v>
+      </c>
+      <c r="E259">
+        <v>0.50227123900000004</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>84</v>
+      </c>
+      <c r="B260" t="s">
+        <v>16</v>
+      </c>
+      <c r="C260">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D260">
+        <v>37.459999084472599</v>
+      </c>
+      <c r="E260">
+        <v>0.50079261499999905</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>84</v>
+      </c>
+      <c r="B261" t="s">
+        <v>16</v>
+      </c>
+      <c r="C261">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D261">
+        <v>38.470001220703097</v>
+      </c>
+      <c r="E261">
+        <v>0.501276837999999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>84</v>
+      </c>
+      <c r="B262" t="s">
+        <v>16</v>
+      </c>
+      <c r="C262">
+        <v>0.3</v>
+      </c>
+      <c r="D262">
+        <v>37.900001525878899</v>
+      </c>
+      <c r="E262">
+        <v>0.50370701399999995</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>84</v>
+      </c>
+      <c r="B263" t="s">
+        <v>16</v>
+      </c>
+      <c r="C263">
+        <v>0.31</v>
+      </c>
+      <c r="D263">
+        <v>37.450000762939403</v>
+      </c>
+      <c r="E263">
+        <v>0.50287790499999996</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>84</v>
+      </c>
+      <c r="B264" t="s">
+        <v>16</v>
+      </c>
+      <c r="C264">
+        <v>0.32</v>
+      </c>
+      <c r="D264">
+        <v>38.389999389648402</v>
+      </c>
+      <c r="E264">
+        <v>0.50179901599999999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>84</v>
+      </c>
+      <c r="B265" t="s">
+        <v>16</v>
+      </c>
+      <c r="C265">
+        <v>0.33</v>
+      </c>
+      <c r="D265">
+        <v>38.080001831054602</v>
+      </c>
+      <c r="E265">
+        <v>0.50270878099999905</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>84</v>
+      </c>
+      <c r="B266" t="s">
+        <v>16</v>
+      </c>
+      <c r="C266">
+        <v>0.34</v>
+      </c>
+      <c r="D266">
+        <v>37.970001220703097</v>
+      </c>
+      <c r="E266">
+        <v>0.50216847200000003</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>84</v>
+      </c>
+      <c r="B267" t="s">
+        <v>16</v>
+      </c>
+      <c r="C267">
+        <v>0.35</v>
+      </c>
+      <c r="D267">
+        <v>38.099998474121001</v>
+      </c>
+      <c r="E267">
+        <v>0.50150920399999999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>84</v>
+      </c>
+      <c r="B268" t="s">
+        <v>16</v>
+      </c>
+      <c r="C268">
+        <v>0.36</v>
+      </c>
+      <c r="D268">
+        <v>38.560001373291001</v>
+      </c>
+      <c r="E268">
+        <v>0.50057665499999904</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>84</v>
+      </c>
+      <c r="B269" t="s">
+        <v>16</v>
+      </c>
+      <c r="C269">
+        <v>0.37</v>
+      </c>
+      <c r="D269">
+        <v>38.159999847412102</v>
+      </c>
+      <c r="E269">
+        <v>0.50133121300000005</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>84</v>
+      </c>
+      <c r="B270" t="s">
+        <v>16</v>
+      </c>
+      <c r="C270">
+        <v>0.38</v>
+      </c>
+      <c r="D270">
+        <v>37.840000152587798</v>
+      </c>
+      <c r="E270">
+        <v>0.50098545699999997</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>84</v>
+      </c>
+      <c r="B271" t="s">
+        <v>16</v>
+      </c>
+      <c r="C271">
+        <v>0.39</v>
+      </c>
+      <c r="D271">
+        <v>37.319999694824197</v>
+      </c>
+      <c r="E271">
+        <v>0.50229388699999999</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>84</v>
+      </c>
+      <c r="B272" t="s">
+        <v>16</v>
+      </c>
+      <c r="C272">
+        <v>0.4</v>
+      </c>
+      <c r="D272">
+        <v>37.909999847412102</v>
+      </c>
+      <c r="E272">
+        <v>0.50232240499999903</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>84</v>
+      </c>
+      <c r="B273" t="s">
+        <v>16</v>
+      </c>
+      <c r="C273">
+        <v>0.41</v>
+      </c>
+      <c r="D273">
+        <v>37.689998626708899</v>
+      </c>
+      <c r="E273">
+        <v>0.50307869799999905</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>84</v>
+      </c>
+      <c r="B274" t="s">
+        <v>16</v>
+      </c>
+      <c r="C274">
+        <v>0.42</v>
+      </c>
+      <c r="D274">
+        <v>38.630001068115199</v>
+      </c>
+      <c r="E274">
+        <v>0.50128449600000002</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>84</v>
+      </c>
+      <c r="B275" t="s">
+        <v>16</v>
+      </c>
+      <c r="C275">
+        <v>0.43</v>
+      </c>
+      <c r="D275">
+        <v>38.209999084472599</v>
+      </c>
+      <c r="E275">
+        <v>0.50243626100000005</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>84</v>
+      </c>
+      <c r="B276" t="s">
+        <v>16</v>
+      </c>
+      <c r="C276">
+        <v>0.44</v>
+      </c>
+      <c r="D276">
+        <v>37.950000762939403</v>
+      </c>
+      <c r="E276">
+        <v>0.50260768099999997</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>84</v>
+      </c>
+      <c r="B277" t="s">
+        <v>16</v>
+      </c>
+      <c r="C277">
+        <v>0.45</v>
+      </c>
+      <c r="D277">
+        <v>38.319999694824197</v>
+      </c>
+      <c r="E277">
+        <v>0.50213633499999999</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>84</v>
+      </c>
+      <c r="B278" t="s">
+        <v>16</v>
+      </c>
+      <c r="C278">
+        <v>0.46</v>
+      </c>
+      <c r="D278">
+        <v>38.330001831054602</v>
+      </c>
+      <c r="E278">
+        <v>0.50204203400000003</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>84</v>
+      </c>
+      <c r="B279" t="s">
+        <v>16</v>
+      </c>
+      <c r="C279">
+        <v>0.47</v>
+      </c>
+      <c r="D279">
+        <v>38.180000305175703</v>
+      </c>
+      <c r="E279">
+        <v>0.50267974599999998</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>84</v>
+      </c>
+      <c r="B280" t="s">
+        <v>16</v>
+      </c>
+      <c r="C280">
+        <v>0.48</v>
+      </c>
+      <c r="D280">
+        <v>38.75</v>
+      </c>
+      <c r="E280">
+        <v>0.50109826199999996</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>84</v>
+      </c>
+      <c r="B281" t="s">
+        <v>16</v>
+      </c>
+      <c r="C281">
+        <v>0.49</v>
+      </c>
+      <c r="D281">
+        <v>38.180000305175703</v>
+      </c>
+      <c r="E281">
+        <v>0.50330574100000003</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>84</v>
+      </c>
+      <c r="B282" t="s">
+        <v>16</v>
+      </c>
+      <c r="C282">
+        <v>0.5</v>
+      </c>
+      <c r="D282">
+        <v>38.630001068115199</v>
+      </c>
+      <c r="E282">
+        <v>0.50213280800000004</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>84</v>
+      </c>
+      <c r="B283" t="s">
+        <v>16</v>
+      </c>
+      <c r="C283">
+        <v>0.51</v>
+      </c>
+      <c r="D283">
+        <v>38.380001068115199</v>
+      </c>
+      <c r="E283">
+        <v>0.50249582800000003</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>84</v>
+      </c>
+      <c r="B284" t="s">
+        <v>16</v>
+      </c>
+      <c r="C284">
+        <v>0.52</v>
+      </c>
+      <c r="D284">
+        <v>37.950000762939403</v>
+      </c>
+      <c r="E284">
+        <v>0.50183657999999998</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>84</v>
+      </c>
+      <c r="B285" t="s">
+        <v>16</v>
+      </c>
+      <c r="C285">
+        <v>0.53</v>
+      </c>
+      <c r="D285">
+        <v>38.409999847412102</v>
+      </c>
+      <c r="E285">
+        <v>0.50151769899999998</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>84</v>
+      </c>
+      <c r="B286" t="s">
+        <v>16</v>
+      </c>
+      <c r="C286">
+        <v>0.54</v>
+      </c>
+      <c r="D286">
+        <v>37.799999237060497</v>
+      </c>
+      <c r="E286">
+        <v>0.50334359399999995</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>84</v>
+      </c>
+      <c r="B287" t="s">
+        <v>16</v>
+      </c>
+      <c r="C287">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D287">
+        <v>38.2299995422363</v>
+      </c>
+      <c r="E287">
+        <v>0.50276670099999998</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>84</v>
+      </c>
+      <c r="B288" t="s">
+        <v>16</v>
+      </c>
+      <c r="C288">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D288">
+        <v>38.509998321533203</v>
+      </c>
+      <c r="E288">
+        <v>0.50120071799999999</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>84</v>
+      </c>
+      <c r="B289" t="s">
+        <v>16</v>
+      </c>
+      <c r="C289">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D289">
+        <v>37.909999847412102</v>
+      </c>
+      <c r="E289">
+        <v>0.50431166800000005</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>84</v>
+      </c>
+      <c r="B290" t="s">
+        <v>16</v>
+      </c>
+      <c r="C290">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D290">
+        <v>38.430000305175703</v>
+      </c>
+      <c r="E290">
+        <v>0.50129302099999995</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>84</v>
+      </c>
+      <c r="B291" t="s">
+        <v>16</v>
+      </c>
+      <c r="C291">
+        <v>0.59</v>
+      </c>
+      <c r="D291">
+        <v>38.549999237060497</v>
+      </c>
+      <c r="E291">
+        <v>0.50224970199999996</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>84</v>
+      </c>
+      <c r="B292" t="s">
+        <v>16</v>
+      </c>
+      <c r="C292">
+        <v>0.6</v>
+      </c>
+      <c r="D292">
+        <v>38.569999694824197</v>
+      </c>
+      <c r="E292">
+        <v>0.50208613199999996</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>84</v>
+      </c>
+      <c r="B293" t="s">
+        <v>16</v>
+      </c>
+      <c r="C293">
+        <v>0.61</v>
+      </c>
+      <c r="D293">
+        <v>38.470001220703097</v>
+      </c>
+      <c r="E293">
+        <v>0.50025427699999903</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>84</v>
+      </c>
+      <c r="B294" t="s">
+        <v>16</v>
+      </c>
+      <c r="C294">
+        <v>0.62</v>
+      </c>
+      <c r="D294">
+        <v>38.490001678466797</v>
+      </c>
+      <c r="E294">
+        <v>0.50259770000000004</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>84</v>
+      </c>
+      <c r="B295" t="s">
+        <v>16</v>
+      </c>
+      <c r="C295">
+        <v>0.63</v>
+      </c>
+      <c r="D295">
+        <v>38.319999694824197</v>
+      </c>
+      <c r="E295">
+        <v>0.50227276399999998</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>84</v>
+      </c>
+      <c r="B296" t="s">
+        <v>16</v>
+      </c>
+      <c r="C296">
+        <v>0.64</v>
+      </c>
+      <c r="D296">
+        <v>38.630001068115199</v>
+      </c>
+      <c r="E296">
+        <v>0.50162253800000001</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>84</v>
+      </c>
+      <c r="B297" t="s">
+        <v>16</v>
+      </c>
+      <c r="C297">
+        <v>0.65</v>
+      </c>
+      <c r="D297">
+        <v>38.669998168945298</v>
+      </c>
+      <c r="E297">
+        <v>0.50244447699999994</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>84</v>
+      </c>
+      <c r="B298" t="s">
+        <v>16</v>
+      </c>
+      <c r="C298">
+        <v>0.66</v>
+      </c>
+      <c r="D298">
+        <v>38.310001373291001</v>
+      </c>
+      <c r="E298">
+        <v>0.50300883600000001</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>84</v>
+      </c>
+      <c r="B299" t="s">
+        <v>16</v>
+      </c>
+      <c r="C299">
+        <v>0.67</v>
+      </c>
+      <c r="D299">
+        <v>38.380001068115199</v>
+      </c>
+      <c r="E299">
+        <v>0.50298801900000001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>84</v>
+      </c>
+      <c r="B300" t="s">
+        <v>16</v>
+      </c>
+      <c r="C300">
+        <v>0.68</v>
+      </c>
+      <c r="D300">
+        <v>38.049999237060497</v>
+      </c>
+      <c r="E300">
+        <v>0.50304767399999994</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>84</v>
+      </c>
+      <c r="B301" t="s">
+        <v>16</v>
+      </c>
+      <c r="C301">
+        <v>0.69</v>
+      </c>
+      <c r="D301">
+        <v>38.599998474121001</v>
+      </c>
+      <c r="E301">
+        <v>0.50322213199999999</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>84</v>
+      </c>
+      <c r="B302" t="s">
+        <v>16</v>
+      </c>
+      <c r="C302">
+        <v>0.7</v>
+      </c>
+      <c r="D302">
+        <v>38.669998168945298</v>
+      </c>
+      <c r="E302">
+        <v>0.50275610999999998</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>84</v>
+      </c>
+      <c r="B303" t="s">
+        <v>16</v>
+      </c>
+      <c r="C303">
+        <v>0.71</v>
+      </c>
+      <c r="D303">
+        <v>38.340000152587798</v>
+      </c>
+      <c r="E303">
+        <v>0.50293337199999999</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>84</v>
+      </c>
+      <c r="B304" t="s">
+        <v>16</v>
+      </c>
+      <c r="C304">
+        <v>0.72</v>
+      </c>
+      <c r="D304">
+        <v>38.470001220703097</v>
+      </c>
+      <c r="E304">
+        <v>0.50303346100000002</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>84</v>
+      </c>
+      <c r="B305" t="s">
+        <v>16</v>
+      </c>
+      <c r="C305">
+        <v>0.73</v>
+      </c>
+      <c r="D305">
+        <v>38.279998779296797</v>
+      </c>
+      <c r="E305">
+        <v>0.503200235</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>84</v>
+      </c>
+      <c r="B306" t="s">
+        <v>16</v>
+      </c>
+      <c r="C306">
+        <v>0.74</v>
+      </c>
+      <c r="D306">
+        <v>38.4799995422363</v>
+      </c>
+      <c r="E306">
+        <v>0.50287991300000001</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>84</v>
+      </c>
+      <c r="B307" t="s">
+        <v>16</v>
+      </c>
+      <c r="C307">
+        <v>0.75</v>
+      </c>
+      <c r="D307">
+        <v>38.080001831054602</v>
+      </c>
+      <c r="E307">
+        <v>0.50318938099999999</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>84</v>
+      </c>
+      <c r="B308" t="s">
+        <v>16</v>
+      </c>
+      <c r="C308">
+        <v>0.76</v>
+      </c>
+      <c r="D308">
+        <v>38.759998321533203</v>
+      </c>
+      <c r="E308">
+        <v>0.50101899099999903</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>84</v>
+      </c>
+      <c r="B309" t="s">
+        <v>16</v>
+      </c>
+      <c r="C309">
+        <v>0.77</v>
+      </c>
+      <c r="D309">
+        <v>38.619998931884702</v>
+      </c>
+      <c r="E309">
+        <v>0.50161225799999998</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>84</v>
+      </c>
+      <c r="B310" t="s">
+        <v>16</v>
+      </c>
+      <c r="C310">
+        <v>0.78</v>
+      </c>
+      <c r="D310">
+        <v>38.779998779296797</v>
+      </c>
+      <c r="E310">
+        <v>0.50122023199999999</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>84</v>
+      </c>
+      <c r="B311" t="s">
+        <v>16</v>
+      </c>
+      <c r="C311">
+        <v>0.79</v>
+      </c>
+      <c r="D311">
+        <v>38.840000152587798</v>
+      </c>
+      <c r="E311">
+        <v>0.50016530599999998</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>84</v>
+      </c>
+      <c r="B312" t="s">
+        <v>16</v>
+      </c>
+      <c r="C312">
+        <v>0.8</v>
+      </c>
+      <c r="D312">
+        <v>38.7299995422363</v>
+      </c>
+      <c r="E312">
+        <v>0.50124204100000003</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>84</v>
+      </c>
+      <c r="B313" t="s">
+        <v>16</v>
+      </c>
+      <c r="C313">
+        <v>0.81</v>
+      </c>
+      <c r="D313">
+        <v>38.450000762939403</v>
+      </c>
+      <c r="E313">
+        <v>0.50238327299999996</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>84</v>
+      </c>
+      <c r="B314" t="s">
+        <v>16</v>
+      </c>
+      <c r="C314">
+        <v>0.82</v>
+      </c>
+      <c r="D314">
+        <v>39.029998779296797</v>
+      </c>
+      <c r="E314">
+        <v>0.50242981799999997</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>84</v>
+      </c>
+      <c r="B315" t="s">
+        <v>16</v>
+      </c>
+      <c r="C315">
+        <v>0.83</v>
+      </c>
+      <c r="D315">
+        <v>38.310001373291001</v>
+      </c>
+      <c r="E315">
+        <v>0.50298606499999998</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>84</v>
+      </c>
+      <c r="B316" t="s">
+        <v>16</v>
+      </c>
+      <c r="C316">
+        <v>0.84</v>
+      </c>
+      <c r="D316">
+        <v>38.319999694824197</v>
+      </c>
+      <c r="E316">
+        <v>0.50265169399999998</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>84</v>
+      </c>
+      <c r="B317" t="s">
+        <v>16</v>
+      </c>
+      <c r="C317">
+        <v>0.85</v>
+      </c>
+      <c r="D317">
+        <v>38.419998168945298</v>
+      </c>
+      <c r="E317">
+        <v>0.50188395500000005</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>84</v>
+      </c>
+      <c r="B318" t="s">
+        <v>16</v>
+      </c>
+      <c r="C318">
+        <v>0.86</v>
+      </c>
+      <c r="D318">
+        <v>38.549999237060497</v>
+      </c>
+      <c r="E318">
+        <v>0.50224228199999998</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>84</v>
+      </c>
+      <c r="B319" t="s">
+        <v>16</v>
+      </c>
+      <c r="C319">
+        <v>0.87</v>
+      </c>
+      <c r="D319">
+        <v>38.599998474121001</v>
+      </c>
+      <c r="E319">
+        <v>0.50181015600000001</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>84</v>
+      </c>
+      <c r="B320" t="s">
+        <v>16</v>
+      </c>
+      <c r="C320">
+        <v>0.88</v>
+      </c>
+      <c r="D320">
+        <v>38.860000610351499</v>
+      </c>
+      <c r="E320">
+        <v>0.50140527999999995</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>84</v>
+      </c>
+      <c r="B321" t="s">
+        <v>16</v>
+      </c>
+      <c r="C321">
+        <v>0.89</v>
+      </c>
+      <c r="D321">
+        <v>38.580001831054602</v>
+      </c>
+      <c r="E321">
+        <v>0.50179079199999999</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>84</v>
+      </c>
+      <c r="B322" t="s">
+        <v>16</v>
+      </c>
+      <c r="C322">
+        <v>0.9</v>
+      </c>
+      <c r="D322">
+        <v>38.659999847412102</v>
+      </c>
+      <c r="E322">
+        <v>0.502538288</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>84</v>
+      </c>
+      <c r="B323" t="s">
+        <v>16</v>
+      </c>
+      <c r="C323">
+        <v>0.91</v>
+      </c>
+      <c r="D323">
+        <v>38.840000152587798</v>
+      </c>
+      <c r="E323">
+        <v>0.50239850600000002</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>84</v>
+      </c>
+      <c r="B324" t="s">
+        <v>16</v>
+      </c>
+      <c r="C324">
+        <v>0.92</v>
+      </c>
+      <c r="D324">
+        <v>38.909999847412102</v>
+      </c>
+      <c r="E324">
+        <v>0.50214372500000004</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>84</v>
+      </c>
+      <c r="B325" t="s">
+        <v>16</v>
+      </c>
+      <c r="C325">
+        <v>0.93</v>
+      </c>
+      <c r="D325">
+        <v>38.939998626708899</v>
+      </c>
+      <c r="E325">
+        <v>0.502443741</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>84</v>
+      </c>
+      <c r="B326" t="s">
+        <v>16</v>
+      </c>
+      <c r="C326">
+        <v>0.94</v>
+      </c>
+      <c r="D326">
+        <v>38.819999694824197</v>
+      </c>
+      <c r="E326">
+        <v>0.50327335299999998</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>84</v>
+      </c>
+      <c r="B327" t="s">
+        <v>16</v>
+      </c>
+      <c r="C327">
+        <v>0.95</v>
+      </c>
+      <c r="D327">
+        <v>38.740001678466797</v>
+      </c>
+      <c r="E327">
+        <v>0.501891898</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>84</v>
+      </c>
+      <c r="B328" t="s">
+        <v>16</v>
+      </c>
+      <c r="C328">
+        <v>0.96</v>
+      </c>
+      <c r="D328">
+        <v>39</v>
+      </c>
+      <c r="E328">
+        <v>0.50204725299999997</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>84</v>
+      </c>
+      <c r="B329" t="s">
+        <v>16</v>
+      </c>
+      <c r="C329">
+        <v>0.97</v>
+      </c>
+      <c r="D329">
+        <v>38.939998626708899</v>
+      </c>
+      <c r="E329">
+        <v>0.502526484</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>84</v>
+      </c>
+      <c r="B330" t="s">
+        <v>16</v>
+      </c>
+      <c r="C330">
+        <v>0.98</v>
+      </c>
+      <c r="D330">
+        <v>38.900001525878899</v>
+      </c>
+      <c r="E330">
+        <v>0.50225767200000004</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>84</v>
+      </c>
+      <c r="B331" t="s">
+        <v>16</v>
+      </c>
+      <c r="C331">
+        <v>0.99</v>
+      </c>
+      <c r="D331">
+        <v>39.049999237060497</v>
+      </c>
+      <c r="E331">
+        <v>0.50221830099999998</v>
       </c>
     </row>
   </sheetData>

--- a/results/linear/AuditResults.xlsx
+++ b/results/linear/AuditResults.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\research\results\linear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEBB8C7-9C57-42D8-992B-45231C063ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF7DC6E-1894-44E7-9219-6204026776FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="18">
   <si>
     <t>Run ID</t>
   </si>
@@ -77,6 +78,9 @@
   </si>
   <si>
     <t>Magnitude Weights</t>
+  </si>
+  <si>
+    <t>random</t>
   </si>
 </sst>
 </file>
@@ -1177,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97681D0C-74BE-4316-A826-900781B712F4}">
   <dimension ref="A1:F331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="B231" sqref="B231"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6818,4 +6822,223 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D56B42-BDAA-42A4-BF68-B752EB7F1037}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>120</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>53.150001525878899</v>
+      </c>
+      <c r="E2">
+        <v>0.65046276041666595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>0.1</v>
+      </c>
+      <c r="D3">
+        <v>56.200000762939403</v>
+      </c>
+      <c r="E3">
+        <v>0.63548255208333304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>118</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>0.2</v>
+      </c>
+      <c r="D4">
+        <v>56.400001525878899</v>
+      </c>
+      <c r="E4">
+        <v>0.64049973958333295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>117</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>0.3</v>
+      </c>
+      <c r="D5">
+        <v>55.599998474121001</v>
+      </c>
+      <c r="E5">
+        <v>0.65198749999999905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>116</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>0.4</v>
+      </c>
+      <c r="D6">
+        <v>54.400001525878899</v>
+      </c>
+      <c r="E6">
+        <v>0.65828515624999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>55.849998474121001</v>
+      </c>
+      <c r="E7">
+        <v>0.66920572916666599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>0.6</v>
+      </c>
+      <c r="D8">
+        <v>57.049999237060497</v>
+      </c>
+      <c r="E8">
+        <v>0.68039869791666596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>113</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>0.7</v>
+      </c>
+      <c r="D9">
+        <v>56.349998470000003</v>
+      </c>
+      <c r="E9">
+        <v>0.69107213499999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>112</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>0.8</v>
+      </c>
+      <c r="D10">
+        <v>57.299999239999998</v>
+      </c>
+      <c r="E10">
+        <v>0.70510130199999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>0.9</v>
+      </c>
+      <c r="D11">
+        <v>57.75</v>
+      </c>
+      <c r="E11">
+        <v>0.70944479199999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>57.5</v>
+      </c>
+      <c r="E12">
+        <v>0.71182968749999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results/linear/AuditResults.xlsx
+++ b/results/linear/AuditResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\research\results\linear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF7DC6E-1894-44E7-9219-6204026776FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E5DDE0-1B57-4649-9F32-DE337A1992BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="20">
   <si>
     <t>Run ID</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>random</t>
+  </si>
+  <si>
+    <t>magnitude</t>
+  </si>
+  <si>
+    <t>rolling</t>
   </si>
 </sst>
 </file>
@@ -6826,10 +6832,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D56B42-BDAA-42A4-BF68-B752EB7F1037}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:E12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7038,6 +7044,346 @@
         <v>0.71182968749999997</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>131</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>57.25</v>
+      </c>
+      <c r="E13">
+        <v>0.70916093749999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>130</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>0.9</v>
+      </c>
+      <c r="D14">
+        <v>57.5</v>
+      </c>
+      <c r="E14">
+        <v>0.72179817700000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>129</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>0.8</v>
+      </c>
+      <c r="D15">
+        <v>57.200000760000002</v>
+      </c>
+      <c r="E15">
+        <v>0.70577864599999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>128</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>0.7</v>
+      </c>
+      <c r="D16">
+        <v>57.299999239999998</v>
+      </c>
+      <c r="E16">
+        <v>0.68437421899999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>127</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>0.6</v>
+      </c>
+      <c r="D17">
+        <v>54.599998470000003</v>
+      </c>
+      <c r="E17">
+        <v>0.68627265599999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>126</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>0.5</v>
+      </c>
+      <c r="D18">
+        <v>54.75</v>
+      </c>
+      <c r="E18">
+        <v>0.67216927100000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>0.4</v>
+      </c>
+      <c r="D19">
+        <v>55.75</v>
+      </c>
+      <c r="E19">
+        <v>0.65582630200000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>124</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.3</v>
+      </c>
+      <c r="D20">
+        <v>56.599998470000003</v>
+      </c>
+      <c r="E20">
+        <v>0.645877865</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>123</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>0.2</v>
+      </c>
+      <c r="D21">
+        <v>54.549999237060497</v>
+      </c>
+      <c r="E21">
+        <v>0.64690781249999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>122</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>0.1</v>
+      </c>
+      <c r="D22">
+        <v>54.650001529999997</v>
+      </c>
+      <c r="E22">
+        <v>0.64608854199999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>121</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>53.150001529999997</v>
+      </c>
+      <c r="E23">
+        <v>0.65046276000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>141</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>0.9</v>
+      </c>
+      <c r="D24">
+        <v>57.75</v>
+      </c>
+      <c r="E24">
+        <v>0.70944479199999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>140</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>0.8</v>
+      </c>
+      <c r="D25">
+        <v>57.299999239999998</v>
+      </c>
+      <c r="E25">
+        <v>0.70510130199999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>139</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>0.7</v>
+      </c>
+      <c r="D26">
+        <v>56.349998470000003</v>
+      </c>
+      <c r="E26">
+        <v>0.69107213499999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>138</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>0.6</v>
+      </c>
+      <c r="D27">
+        <v>57.049999239999998</v>
+      </c>
+      <c r="E27">
+        <v>0.68039869799999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>137</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <v>0.5</v>
+      </c>
+      <c r="D28">
+        <v>55.849998470000003</v>
+      </c>
+      <c r="E28">
+        <v>0.66920572899999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>136</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>0.4</v>
+      </c>
+      <c r="D29">
+        <v>54.400001529999997</v>
+      </c>
+      <c r="E29">
+        <v>0.65828515600000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>135</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>0.3</v>
+      </c>
+      <c r="D30">
+        <v>55.599998470000003</v>
+      </c>
+      <c r="E30">
+        <v>0.65198750000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>134</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31">
+        <v>0.2</v>
+      </c>
+      <c r="D31">
+        <v>56.400001529999997</v>
+      </c>
+      <c r="E31">
+        <v>0.64049973999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>133</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <v>0.1</v>
+      </c>
+      <c r="D32">
+        <v>56.200000760000002</v>
+      </c>
+      <c r="E32">
+        <v>0.63548255200000003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/linear/AuditResults.xlsx
+++ b/results/linear/AuditResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\research\results\linear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E5DDE0-1B57-4649-9F32-DE337A1992BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE2FAD5-DC94-4F32-A63E-0F4AE794DF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6834,8 +6834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D56B42-BDAA-42A4-BF68-B752EB7F1037}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:E32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7233,7 +7233,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
@@ -7242,15 +7242,15 @@
         <v>0.9</v>
       </c>
       <c r="D24">
-        <v>57.75</v>
+        <v>56.849998470000003</v>
       </c>
       <c r="E24">
-        <v>0.70944479199999999</v>
+        <v>0.70526171900000001</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
@@ -7259,15 +7259,15 @@
         <v>0.8</v>
       </c>
       <c r="D25">
-        <v>57.299999239999998</v>
+        <v>56.200000760000002</v>
       </c>
       <c r="E25">
-        <v>0.70510130199999999</v>
+        <v>0.70735546900000001</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B26" t="s">
         <v>19</v>
@@ -7276,15 +7276,15 @@
         <v>0.7</v>
       </c>
       <c r="D26">
-        <v>56.349998470000003</v>
+        <v>56.5</v>
       </c>
       <c r="E26">
-        <v>0.69107213499999998</v>
+        <v>0.705272656</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
@@ -7293,15 +7293,15 @@
         <v>0.6</v>
       </c>
       <c r="D27">
-        <v>57.049999239999998</v>
+        <v>56.349998470000003</v>
       </c>
       <c r="E27">
-        <v>0.68039869799999997</v>
+        <v>0.69680260400000005</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B28" t="s">
         <v>19</v>
@@ -7310,15 +7310,15 @@
         <v>0.5</v>
       </c>
       <c r="D28">
-        <v>55.849998470000003</v>
+        <v>56.450000760000002</v>
       </c>
       <c r="E28">
-        <v>0.66920572899999997</v>
+        <v>0.67382500000000001</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
@@ -7327,15 +7327,15 @@
         <v>0.4</v>
       </c>
       <c r="D29">
-        <v>54.400001529999997</v>
+        <v>55.849998470000003</v>
       </c>
       <c r="E29">
-        <v>0.65828515600000004</v>
+        <v>0.66435416700000005</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
@@ -7344,15 +7344,15 @@
         <v>0.3</v>
       </c>
       <c r="D30">
-        <v>55.599998470000003</v>
+        <v>55.25</v>
       </c>
       <c r="E30">
-        <v>0.65198750000000005</v>
+        <v>0.65763411500000002</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
@@ -7361,15 +7361,15 @@
         <v>0.2</v>
       </c>
       <c r="D31">
-        <v>56.400001529999997</v>
+        <v>55.599998470000003</v>
       </c>
       <c r="E31">
-        <v>0.64049973999999998</v>
+        <v>0.649060156</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B32" t="s">
         <v>19</v>
@@ -7378,10 +7378,10 @@
         <v>0.1</v>
       </c>
       <c r="D32">
-        <v>56.200000760000002</v>
+        <v>55.25</v>
       </c>
       <c r="E32">
-        <v>0.63548255200000003</v>
+        <v>0.64177812499999998</v>
       </c>
     </row>
   </sheetData>
